--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\ferrmar\Documents\04-ATG\automatic_monthly_check\webapp\Development\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF640592-5C19-4408-8EA4-18CFF98CF071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7341" uniqueCount="5573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="5591">
   <si>
     <t>Specific Contract</t>
   </si>
@@ -2254,7 +2260,7 @@
     <t>https://idm.f4e.europa.eu/?uid=39F4BA</t>
   </si>
   <si>
-    <t xml:space="preserve">https://idm.f4e.europa.eu/?uid=39F8CS </t>
+    <t>https://idm.f4e.europa.eu/?uid=39F8CS </t>
   </si>
   <si>
     <t xml:space="preserve">https://idm.f4e.europa.eu/?uid=38STSQ </t>
@@ -16733,16 +16739,70 @@
   </si>
   <si>
     <t>ATG-EU-RP-PC-F4E-24-09465</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00664</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00665</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00667</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00668</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00669</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00670</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00671</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00672</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00673</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00674</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00675</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00676</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00677</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00678</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00679</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00680</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00681</t>
+  </si>
+  <si>
+    <t>ATG-EU-RP-PC-F4E-25-00682</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16764,6 +16824,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -16819,13 +16885,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16863,7 +16937,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -16897,6 +16971,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -16931,9 +17006,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17106,14 +17182,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BP43" workbookViewId="0">
+      <selection activeCell="CH47" sqref="CH47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:92">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17391,7 +17469,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:92">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -17504,7 +17582,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="3" spans="1:92">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -17674,7 +17752,7 @@
         <v>5422</v>
       </c>
     </row>
-    <row r="4" spans="1:92">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -17787,7 +17865,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="5" spans="1:92">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -17894,7 +17972,7 @@
         <v>5559</v>
       </c>
     </row>
-    <row r="6" spans="1:92">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -18067,7 +18145,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="7" spans="1:92">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -18240,7 +18318,7 @@
         <v>5425</v>
       </c>
     </row>
-    <row r="8" spans="1:92">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -18353,7 +18431,7 @@
         <v>4531</v>
       </c>
     </row>
-    <row r="9" spans="1:92">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -18442,7 +18520,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="10" spans="1:92">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -18546,7 +18624,7 @@
         <v>5572</v>
       </c>
     </row>
-    <row r="11" spans="1:92">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -18722,7 +18800,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="12" spans="1:92">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -18898,7 +18976,7 @@
         <v>5428</v>
       </c>
     </row>
-    <row r="13" spans="1:92">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -18999,7 +19077,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="14" spans="1:92">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -19175,7 +19253,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="15" spans="1:92">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -19276,7 +19354,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="16" spans="1:92">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -19440,7 +19518,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="17" spans="1:88">
+    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -19541,7 +19619,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="18" spans="1:88">
+    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -19702,7 +19780,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="19" spans="1:88">
+    <row r="19" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -19878,7 +19956,7 @@
         <v>5431</v>
       </c>
     </row>
-    <row r="20" spans="1:88">
+    <row r="20" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -19979,7 +20057,7 @@
         <v>3477</v>
       </c>
     </row>
-    <row r="21" spans="1:88">
+    <row r="21" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -20155,7 +20233,7 @@
         <v>5347</v>
       </c>
     </row>
-    <row r="22" spans="1:88">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -20331,7 +20409,7 @@
         <v>5348</v>
       </c>
     </row>
-    <row r="23" spans="1:88">
+    <row r="23" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -20525,7 +20603,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="24" spans="1:88">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -20626,7 +20704,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="25" spans="1:88">
+    <row r="25" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -20742,7 +20820,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="26" spans="1:88">
+    <row r="26" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -20864,7 +20942,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="27" spans="1:88">
+    <row r="27" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -21019,7 +21097,7 @@
         <v>5546</v>
       </c>
     </row>
-    <row r="28" spans="1:88">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -21165,7 +21243,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="29" spans="1:88">
+    <row r="29" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>115</v>
       </c>
@@ -21281,7 +21359,7 @@
         <v>4867</v>
       </c>
     </row>
-    <row r="30" spans="1:88">
+    <row r="30" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -21370,7 +21448,7 @@
         <v>4868</v>
       </c>
     </row>
-    <row r="31" spans="1:88">
+    <row r="31" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -21483,7 +21561,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="32" spans="1:88">
+    <row r="32" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -21569,7 +21647,7 @@
         <v>5435</v>
       </c>
     </row>
-    <row r="33" spans="1:87">
+    <row r="33" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -21655,7 +21733,7 @@
         <v>5505</v>
       </c>
     </row>
-    <row r="34" spans="1:87">
+    <row r="34" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -21741,7 +21819,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="35" spans="1:87">
+    <row r="35" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -21827,7 +21905,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="36" spans="1:87">
+    <row r="36" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -21889,7 +21967,7 @@
         <v>5562</v>
       </c>
     </row>
-    <row r="37" spans="1:87">
+    <row r="37" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -21996,7 +22074,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="38" spans="1:87">
+    <row r="38" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -22112,7 +22190,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="39" spans="1:87">
+    <row r="39" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -22189,7 +22267,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="40" spans="1:87">
+    <row r="40" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -22293,7 +22371,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="41" spans="1:87">
+    <row r="41" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -22397,7 +22475,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="42" spans="1:87">
+    <row r="42" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -22513,7 +22591,7 @@
         <v>4873</v>
       </c>
     </row>
-    <row r="43" spans="1:87">
+    <row r="43" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -22686,7 +22764,7 @@
         <v>5508</v>
       </c>
     </row>
-    <row r="44" spans="1:87">
+    <row r="44" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -22793,7 +22871,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="45" spans="1:87">
+    <row r="45" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -22906,7 +22984,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="46" spans="1:87">
+    <row r="46" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -23019,7 +23097,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="47" spans="1:87">
+    <row r="47" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -23134,8 +23212,62 @@
       <c r="BP47" t="s">
         <v>3853</v>
       </c>
+      <c r="BQ47" t="s">
+        <v>5573</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>5574</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>5575</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>5576</v>
+      </c>
+      <c r="BU47" t="s">
+        <v>5577</v>
+      </c>
+      <c r="BV47" t="s">
+        <v>5578</v>
+      </c>
+      <c r="BW47" t="s">
+        <v>5579</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>5580</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>5581</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>5582</v>
+      </c>
+      <c r="CA47" t="s">
+        <v>5583</v>
+      </c>
+      <c r="CB47" t="s">
+        <v>5584</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>5585</v>
+      </c>
+      <c r="CD47" t="s">
+        <v>5586</v>
+      </c>
+      <c r="CE47" t="s">
+        <v>5587</v>
+      </c>
+      <c r="CF47" t="s">
+        <v>5588</v>
+      </c>
+      <c r="CG47" t="s">
+        <v>5589</v>
+      </c>
+      <c r="CH47" t="s">
+        <v>5590</v>
+      </c>
     </row>
-    <row r="48" spans="1:87">
+    <row r="48" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -23305,7 +23437,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="49" spans="1:86">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>129</v>
       </c>
@@ -23475,7 +23607,7 @@
         <v>5441</v>
       </c>
     </row>
-    <row r="50" spans="1:86">
+    <row r="50" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -23645,7 +23777,7 @@
         <v>5442</v>
       </c>
     </row>
-    <row r="51" spans="1:86">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -23713,7 +23845,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="52" spans="1:86">
+    <row r="52" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>132</v>
       </c>
@@ -23814,7 +23946,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="53" spans="1:86">
+    <row r="53" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -23981,7 +24113,7 @@
         <v>5267</v>
       </c>
     </row>
-    <row r="54" spans="1:86">
+    <row r="54" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -24094,7 +24226,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="55" spans="1:86">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>135</v>
       </c>
@@ -24201,7 +24333,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="56" spans="1:86">
+    <row r="56" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -24317,7 +24449,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="57" spans="1:86">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -24430,7 +24562,7 @@
         <v>4557</v>
       </c>
     </row>
-    <row r="58" spans="1:86">
+    <row r="58" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -24543,7 +24675,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="59" spans="1:86">
+    <row r="59" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -24623,7 +24755,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="60" spans="1:86">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -24733,7 +24865,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="61" spans="1:86">
+    <row r="61" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -24846,7 +24978,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="62" spans="1:86">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -24956,7 +25088,7 @@
         <v>5509</v>
       </c>
     </row>
-    <row r="63" spans="1:86">
+    <row r="63" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -25069,7 +25201,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="64" spans="1:86">
+    <row r="64" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -25182,7 +25314,7 @@
         <v>5548</v>
       </c>
     </row>
-    <row r="65" spans="1:88">
+    <row r="65" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -25286,7 +25418,7 @@
         <v>5571</v>
       </c>
     </row>
-    <row r="66" spans="1:88">
+    <row r="66" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -25372,7 +25504,7 @@
         <v>5512</v>
       </c>
     </row>
-    <row r="67" spans="1:88">
+    <row r="67" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -25464,7 +25596,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="68" spans="1:88">
+    <row r="68" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -25550,7 +25682,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="69" spans="1:88">
+    <row r="69" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -25636,7 +25768,7 @@
         <v>5513</v>
       </c>
     </row>
-    <row r="70" spans="1:88">
+    <row r="70" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -25728,7 +25860,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="71" spans="1:88">
+    <row r="71" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>145</v>
       </c>
@@ -25811,7 +25943,7 @@
         <v>5508</v>
       </c>
     </row>
-    <row r="72" spans="1:88">
+    <row r="72" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>145</v>
       </c>
@@ -25891,7 +26023,7 @@
         <v>5267</v>
       </c>
     </row>
-    <row r="73" spans="1:88">
+    <row r="73" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -25977,7 +26109,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="74" spans="1:88">
+    <row r="74" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -26063,7 +26195,7 @@
         <v>5564</v>
       </c>
     </row>
-    <row r="75" spans="1:88">
+    <row r="75" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -26137,7 +26269,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="76" spans="1:88">
+    <row r="76" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -26220,7 +26352,7 @@
         <v>5565</v>
       </c>
     </row>
-    <row r="77" spans="1:88">
+    <row r="77" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -26297,7 +26429,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="78" spans="1:88">
+    <row r="78" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -26374,7 +26506,7 @@
         <v>5441</v>
       </c>
     </row>
-    <row r="79" spans="1:88">
+    <row r="79" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -26532,7 +26664,7 @@
         <v>5276</v>
       </c>
     </row>
-    <row r="80" spans="1:88">
+    <row r="80" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -26702,7 +26834,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="81" spans="1:86">
+    <row r="81" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -26872,7 +27004,7 @@
         <v>5452</v>
       </c>
     </row>
-    <row r="82" spans="1:86">
+    <row r="82" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -27039,7 +27171,7 @@
         <v>5453</v>
       </c>
     </row>
-    <row r="83" spans="1:86">
+    <row r="83" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>154</v>
       </c>
@@ -27146,7 +27278,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="84" spans="1:86">
+    <row r="84" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -27316,7 +27448,7 @@
         <v>5454</v>
       </c>
     </row>
-    <row r="85" spans="1:86">
+    <row r="85" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -27423,7 +27555,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="86" spans="1:86">
+    <row r="86" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -27533,7 +27665,7 @@
         <v>4228</v>
       </c>
     </row>
-    <row r="87" spans="1:86">
+    <row r="87" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>105</v>
       </c>
@@ -27700,7 +27832,7 @@
         <v>5455</v>
       </c>
     </row>
-    <row r="88" spans="1:86">
+    <row r="88" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -27861,7 +27993,7 @@
         <v>5517</v>
       </c>
     </row>
-    <row r="89" spans="1:86">
+    <row r="89" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>157</v>
       </c>
@@ -28028,7 +28160,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="90" spans="1:86">
+    <row r="90" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>158</v>
       </c>
@@ -28195,7 +28327,7 @@
         <v>5458</v>
       </c>
     </row>
-    <row r="91" spans="1:86">
+    <row r="91" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -28368,7 +28500,7 @@
         <v>5459</v>
       </c>
     </row>
-    <row r="92" spans="1:86">
+    <row r="92" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -28475,7 +28607,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="93" spans="1:86">
+    <row r="93" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>161</v>
       </c>
@@ -28642,7 +28774,7 @@
         <v>5553</v>
       </c>
     </row>
-    <row r="94" spans="1:86">
+    <row r="94" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>162</v>
       </c>
@@ -28749,7 +28881,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="95" spans="1:86">
+    <row r="95" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>163</v>
       </c>
@@ -28922,7 +29054,7 @@
         <v>5461</v>
       </c>
     </row>
-    <row r="96" spans="1:86">
+    <row r="96" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -29026,7 +29158,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="97" spans="1:84">
+    <row r="97" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>164</v>
       </c>
@@ -29139,7 +29271,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="98" spans="1:84">
+    <row r="98" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>165</v>
       </c>
@@ -29249,7 +29381,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="99" spans="1:84">
+    <row r="99" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -29359,7 +29491,7 @@
         <v>4794</v>
       </c>
     </row>
-    <row r="100" spans="1:84">
+    <row r="100" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>167</v>
       </c>
@@ -29484,7 +29616,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="1:84">
+    <row r="101" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>168</v>
       </c>
@@ -29591,7 +29723,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="102" spans="1:84">
+    <row r="102" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>151</v>
       </c>
@@ -29680,7 +29812,7 @@
         <v>5519</v>
       </c>
     </row>
-    <row r="103" spans="1:84">
+    <row r="103" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>154</v>
       </c>
@@ -29754,7 +29886,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="104" spans="1:84">
+    <row r="104" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>145</v>
       </c>
@@ -29840,7 +29972,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="105" spans="1:84">
+    <row r="105" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>169</v>
       </c>
@@ -29914,7 +30046,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="106" spans="1:84">
+    <row r="106" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>169</v>
       </c>
@@ -29991,7 +30123,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="107" spans="1:84">
+    <row r="107" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>170</v>
       </c>
@@ -30098,7 +30230,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="108" spans="1:84">
+    <row r="108" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>171</v>
       </c>
@@ -30292,7 +30424,7 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="109" spans="1:84">
+    <row r="109" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>172</v>
       </c>
@@ -30405,7 +30537,7 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="110" spans="1:84">
+    <row r="110" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>173</v>
       </c>
@@ -30518,7 +30650,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="111" spans="1:84">
+    <row r="111" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>153</v>
       </c>
@@ -30640,7 +30772,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="112" spans="1:84">
+    <row r="112" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>153</v>
       </c>
@@ -30756,7 +30888,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="113" spans="1:86">
+    <row r="113" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>153</v>
       </c>
@@ -30932,7 +31064,7 @@
         <v>5464</v>
       </c>
     </row>
-    <row r="114" spans="1:86">
+    <row r="114" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -31108,7 +31240,7 @@
         <v>5465</v>
       </c>
     </row>
-    <row r="115" spans="1:86">
+    <row r="115" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>153</v>
       </c>
@@ -31284,7 +31416,7 @@
         <v>5466</v>
       </c>
     </row>
-    <row r="116" spans="1:86">
+    <row r="116" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>153</v>
       </c>
@@ -31460,7 +31592,7 @@
         <v>5467</v>
       </c>
     </row>
-    <row r="117" spans="1:86">
+    <row r="117" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>153</v>
       </c>
@@ -31624,7 +31756,7 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="118" spans="1:86">
+    <row r="118" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>153</v>
       </c>
@@ -31800,7 +31932,7 @@
         <v>5469</v>
       </c>
     </row>
-    <row r="119" spans="1:86">
+    <row r="119" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>153</v>
       </c>
@@ -31976,7 +32108,7 @@
         <v>5470</v>
       </c>
     </row>
-    <row r="120" spans="1:86">
+    <row r="120" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>174</v>
       </c>
@@ -32167,7 +32299,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="121" spans="1:86">
+    <row r="121" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>175</v>
       </c>
@@ -32343,7 +32475,7 @@
         <v>5389</v>
       </c>
     </row>
-    <row r="122" spans="1:86">
+    <row r="122" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>176</v>
       </c>
@@ -32456,7 +32588,7 @@
         <v>4598</v>
       </c>
     </row>
-    <row r="123" spans="1:86">
+    <row r="123" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>177</v>
       </c>
@@ -32599,7 +32731,7 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="124" spans="1:86">
+    <row r="124" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>177</v>
       </c>
@@ -32712,7 +32844,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="125" spans="1:86">
+    <row r="125" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>178</v>
       </c>
@@ -32780,7 +32912,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="126" spans="1:86">
+    <row r="126" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>179</v>
       </c>
@@ -32866,7 +32998,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="127" spans="1:86">
+    <row r="127" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -32952,7 +33084,7 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="128" spans="1:86">
+    <row r="128" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -33014,7 +33146,7 @@
         <v>5555</v>
       </c>
     </row>
-    <row r="129" spans="1:87">
+    <row r="129" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -33076,7 +33208,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="130" spans="1:87">
+    <row r="130" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>182</v>
       </c>
@@ -33138,7 +33270,7 @@
         <v>5567</v>
       </c>
     </row>
-    <row r="131" spans="1:87">
+    <row r="131" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>183</v>
       </c>
@@ -33191,7 +33323,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="132" spans="1:87">
+    <row r="132" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>184</v>
       </c>
@@ -33295,7 +33427,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="133" spans="1:87">
+    <row r="133" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>184</v>
       </c>
@@ -33402,7 +33534,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="134" spans="1:87">
+    <row r="134" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>185</v>
       </c>
@@ -33479,7 +33611,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="135" spans="1:87">
+    <row r="135" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>186</v>
       </c>
@@ -33610,7 +33742,7 @@
         <v>5477</v>
       </c>
     </row>
-    <row r="136" spans="1:87">
+    <row r="136" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>186</v>
       </c>
@@ -33681,7 +33813,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="137" spans="1:87">
+    <row r="137" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>187</v>
       </c>
@@ -33755,7 +33887,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="138" spans="1:87">
+    <row r="138" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>187</v>
       </c>
@@ -33817,7 +33949,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="139" spans="1:87">
+    <row r="139" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>188</v>
       </c>
@@ -33984,7 +34116,7 @@
         <v>5478</v>
       </c>
     </row>
-    <row r="140" spans="1:87">
+    <row r="140" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>189</v>
       </c>
@@ -34058,7 +34190,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="141" spans="1:87">
+    <row r="141" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>190</v>
       </c>
@@ -34132,7 +34264,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="142" spans="1:87">
+    <row r="142" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>105</v>
       </c>
@@ -34305,7 +34437,7 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="143" spans="1:87">
+    <row r="143" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>130</v>
       </c>
@@ -34478,7 +34610,7 @@
         <v>5480</v>
       </c>
     </row>
-    <row r="144" spans="1:87">
+    <row r="144" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -34651,7 +34783,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="145" spans="1:83">
+    <row r="145" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -34824,7 +34956,7 @@
         <v>5482</v>
       </c>
     </row>
-    <row r="146" spans="1:83">
+    <row r="146" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>191</v>
       </c>
@@ -34889,7 +35021,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="147" spans="1:83">
+    <row r="147" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>191</v>
       </c>
@@ -34960,7 +35092,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="148" spans="1:83">
+    <row r="148" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>192</v>
       </c>
@@ -35037,7 +35169,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="149" spans="1:83">
+    <row r="149" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>193</v>
       </c>
@@ -35105,7 +35237,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="150" spans="1:83">
+    <row r="150" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>194</v>
       </c>
@@ -35206,7 +35338,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="151" spans="1:83">
+    <row r="151" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>194</v>
       </c>
@@ -35394,7 +35526,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="152" spans="1:83">
+    <row r="152" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>195</v>
       </c>
@@ -35510,7 +35642,7 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="153" spans="1:83">
+    <row r="153" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>195</v>
       </c>
@@ -35626,7 +35758,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="154" spans="1:83">
+    <row r="154" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>196</v>
       </c>
@@ -35757,7 +35889,7 @@
         <v>5126</v>
       </c>
     </row>
-    <row r="155" spans="1:83">
+    <row r="155" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>196</v>
       </c>
@@ -35858,7 +35990,7 @@
         <v>4501</v>
       </c>
     </row>
-    <row r="156" spans="1:83">
+    <row r="156" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>197</v>
       </c>
@@ -35974,7 +36106,7 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="157" spans="1:83">
+    <row r="157" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>186</v>
       </c>
@@ -36099,7 +36231,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="158" spans="1:83">
+    <row r="158" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>192</v>
       </c>
@@ -36170,7 +36302,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="159" spans="1:83">
+    <row r="159" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>198</v>
       </c>
@@ -36286,7 +36418,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="160" spans="1:83">
+    <row r="160" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -36399,7 +36531,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="161" spans="1:83">
+    <row r="161" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>200</v>
       </c>
@@ -36572,7 +36704,7 @@
         <v>5484</v>
       </c>
     </row>
-    <row r="162" spans="1:83">
+    <row r="162" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>201</v>
       </c>
@@ -36652,7 +36784,7 @@
         <v>5480</v>
       </c>
     </row>
-    <row r="163" spans="1:83">
+    <row r="163" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>201</v>
       </c>
@@ -36744,7 +36876,7 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="164" spans="1:83">
+    <row r="164" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>201</v>
       </c>
@@ -36779,7 +36911,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="165" spans="1:83">
+    <row r="165" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>201</v>
       </c>
@@ -36859,7 +36991,7 @@
         <v>5484</v>
       </c>
     </row>
-    <row r="166" spans="1:83">
+    <row r="166" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>202</v>
       </c>
@@ -37032,7 +37164,7 @@
         <v>5485</v>
       </c>
     </row>
-    <row r="167" spans="1:83">
+    <row r="167" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>203</v>
       </c>
@@ -37178,7 +37310,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="168" spans="1:83">
+    <row r="168" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>202</v>
       </c>
@@ -37345,7 +37477,7 @@
         <v>5407</v>
       </c>
     </row>
-    <row r="169" spans="1:83">
+    <row r="169" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>204</v>
       </c>
@@ -37518,7 +37650,7 @@
         <v>5408</v>
       </c>
     </row>
-    <row r="170" spans="1:83">
+    <row r="170" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>204</v>
       </c>
@@ -37691,7 +37823,7 @@
         <v>5486</v>
       </c>
     </row>
-    <row r="171" spans="1:83">
+    <row r="171" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>205</v>
       </c>
@@ -37798,7 +37930,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="172" spans="1:83">
+    <row r="172" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -37971,7 +38103,7 @@
         <v>5487</v>
       </c>
     </row>
-    <row r="173" spans="1:83">
+    <row r="173" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>205</v>
       </c>
@@ -38144,7 +38276,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row r="174" spans="1:83">
+    <row r="174" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>205</v>
       </c>
@@ -38263,7 +38395,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="175" spans="1:83">
+    <row r="175" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>205</v>
       </c>
@@ -38436,7 +38568,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="176" spans="1:83">
+    <row r="176" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>205</v>
       </c>
@@ -38609,7 +38741,7 @@
         <v>5490</v>
       </c>
     </row>
-    <row r="177" spans="1:87">
+    <row r="177" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>205</v>
       </c>
@@ -38743,7 +38875,7 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="178" spans="1:87">
+    <row r="178" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>205</v>
       </c>
@@ -38916,7 +39048,7 @@
         <v>5492</v>
       </c>
     </row>
-    <row r="179" spans="1:87">
+    <row r="179" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>206</v>
       </c>
@@ -39017,7 +39149,7 @@
         <v>5493</v>
       </c>
     </row>
-    <row r="180" spans="1:87">
+    <row r="180" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>206</v>
       </c>
@@ -39190,7 +39322,7 @@
         <v>5494</v>
       </c>
     </row>
-    <row r="181" spans="1:87">
+    <row r="181" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>207</v>
       </c>
@@ -39288,7 +39420,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="182" spans="1:87">
+    <row r="182" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>208</v>
       </c>
@@ -39476,7 +39608,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="183" spans="1:87">
+    <row r="183" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -39583,7 +39715,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="184" spans="1:87">
+    <row r="184" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>210</v>
       </c>
@@ -39756,7 +39888,7 @@
         <v>5496</v>
       </c>
     </row>
-    <row r="185" spans="1:87">
+    <row r="185" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>210</v>
       </c>
@@ -39929,7 +40061,7 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="186" spans="1:87">
+    <row r="186" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>211</v>
       </c>
@@ -40093,7 +40225,7 @@
         <v>5498</v>
       </c>
     </row>
-    <row r="187" spans="1:87">
+    <row r="187" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>212</v>
       </c>
@@ -40212,7 +40344,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="188" spans="1:87">
+    <row r="188" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>213</v>
       </c>
@@ -40331,7 +40463,7 @@
         <v>4531</v>
       </c>
     </row>
-    <row r="189" spans="1:87">
+    <row r="189" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>214</v>
       </c>
@@ -40432,7 +40564,7 @@
         <v>5333</v>
       </c>
     </row>
-    <row r="190" spans="1:87">
+    <row r="190" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -40521,7 +40653,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="191" spans="1:87">
+    <row r="191" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>202</v>
       </c>
@@ -40554,188 +40686,189 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-    <hyperlink ref="J17" r:id="rId16"/>
-    <hyperlink ref="J18" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
-    <hyperlink ref="J20" r:id="rId19"/>
-    <hyperlink ref="J21" r:id="rId20"/>
-    <hyperlink ref="J22" r:id="rId21"/>
-    <hyperlink ref="J23" r:id="rId22"/>
-    <hyperlink ref="J24" r:id="rId23"/>
-    <hyperlink ref="J25" r:id="rId24"/>
-    <hyperlink ref="J26" r:id="rId25"/>
-    <hyperlink ref="J27" r:id="rId26"/>
-    <hyperlink ref="J28" r:id="rId27"/>
-    <hyperlink ref="J29" r:id="rId28"/>
-    <hyperlink ref="J30" r:id="rId29"/>
-    <hyperlink ref="J31" r:id="rId30"/>
-    <hyperlink ref="J32" r:id="rId31"/>
-    <hyperlink ref="J33" r:id="rId32"/>
-    <hyperlink ref="J34" r:id="rId33"/>
-    <hyperlink ref="J35" r:id="rId34"/>
-    <hyperlink ref="J37" r:id="rId35"/>
-    <hyperlink ref="J38" r:id="rId36"/>
-    <hyperlink ref="J39" r:id="rId37"/>
-    <hyperlink ref="J40" r:id="rId38"/>
-    <hyperlink ref="J41" r:id="rId39"/>
-    <hyperlink ref="J42" r:id="rId40"/>
-    <hyperlink ref="J43" r:id="rId41"/>
-    <hyperlink ref="J44" r:id="rId42"/>
-    <hyperlink ref="J45" r:id="rId43"/>
-    <hyperlink ref="J46" r:id="rId44"/>
-    <hyperlink ref="J47" r:id="rId45"/>
-    <hyperlink ref="J48" r:id="rId46"/>
-    <hyperlink ref="J49" r:id="rId47"/>
-    <hyperlink ref="J50" r:id="rId48"/>
-    <hyperlink ref="J51" r:id="rId49"/>
-    <hyperlink ref="J52" r:id="rId50"/>
-    <hyperlink ref="J53" r:id="rId51"/>
-    <hyperlink ref="J54" r:id="rId52"/>
-    <hyperlink ref="J55" r:id="rId53"/>
-    <hyperlink ref="J56" r:id="rId54"/>
-    <hyperlink ref="J57" r:id="rId55"/>
-    <hyperlink ref="J58" r:id="rId56"/>
-    <hyperlink ref="J59" r:id="rId57"/>
-    <hyperlink ref="J60" r:id="rId58"/>
-    <hyperlink ref="J61" r:id="rId59"/>
-    <hyperlink ref="J62" r:id="rId60"/>
-    <hyperlink ref="J63" r:id="rId61"/>
-    <hyperlink ref="J64" r:id="rId62"/>
-    <hyperlink ref="J65" r:id="rId63"/>
-    <hyperlink ref="J66" r:id="rId64"/>
-    <hyperlink ref="J67" r:id="rId65"/>
-    <hyperlink ref="J68" r:id="rId66"/>
-    <hyperlink ref="J69" r:id="rId67"/>
-    <hyperlink ref="J70" r:id="rId68"/>
-    <hyperlink ref="J71" r:id="rId69"/>
-    <hyperlink ref="J72" r:id="rId70"/>
-    <hyperlink ref="J73" r:id="rId71"/>
-    <hyperlink ref="J74" r:id="rId72"/>
-    <hyperlink ref="J76" r:id="rId73"/>
-    <hyperlink ref="J77" r:id="rId74"/>
-    <hyperlink ref="J78" r:id="rId75"/>
-    <hyperlink ref="J79" r:id="rId76"/>
-    <hyperlink ref="J80" r:id="rId77"/>
-    <hyperlink ref="J81" r:id="rId78"/>
-    <hyperlink ref="J82" r:id="rId79"/>
-    <hyperlink ref="J83" r:id="rId80"/>
-    <hyperlink ref="J84" r:id="rId81"/>
-    <hyperlink ref="J85" r:id="rId82"/>
-    <hyperlink ref="J86" r:id="rId83"/>
-    <hyperlink ref="J87" r:id="rId84"/>
-    <hyperlink ref="J88" r:id="rId85"/>
-    <hyperlink ref="J89" r:id="rId86"/>
-    <hyperlink ref="J90" r:id="rId87"/>
-    <hyperlink ref="J91" r:id="rId88"/>
-    <hyperlink ref="J92" r:id="rId89"/>
-    <hyperlink ref="J93" r:id="rId90"/>
-    <hyperlink ref="J94" r:id="rId91"/>
-    <hyperlink ref="J95" r:id="rId92"/>
-    <hyperlink ref="J96" r:id="rId93"/>
-    <hyperlink ref="J97" r:id="rId94"/>
-    <hyperlink ref="J98" r:id="rId95"/>
-    <hyperlink ref="J99" r:id="rId96"/>
-    <hyperlink ref="J100" r:id="rId97"/>
-    <hyperlink ref="J101" r:id="rId98"/>
-    <hyperlink ref="J102" r:id="rId99"/>
-    <hyperlink ref="J103" r:id="rId100"/>
-    <hyperlink ref="J104" r:id="rId101"/>
-    <hyperlink ref="J105" r:id="rId102"/>
-    <hyperlink ref="J106" r:id="rId103"/>
-    <hyperlink ref="J107" r:id="rId104"/>
-    <hyperlink ref="J108" r:id="rId105"/>
-    <hyperlink ref="J109" r:id="rId106"/>
-    <hyperlink ref="J110" r:id="rId107"/>
-    <hyperlink ref="J111" r:id="rId108"/>
-    <hyperlink ref="J112" r:id="rId109"/>
-    <hyperlink ref="J113" r:id="rId110"/>
-    <hyperlink ref="J114" r:id="rId111"/>
-    <hyperlink ref="J115" r:id="rId112"/>
-    <hyperlink ref="J116" r:id="rId113"/>
-    <hyperlink ref="J117" r:id="rId114"/>
-    <hyperlink ref="J118" r:id="rId115"/>
-    <hyperlink ref="J119" r:id="rId116"/>
-    <hyperlink ref="J120" r:id="rId117"/>
-    <hyperlink ref="J121" r:id="rId118"/>
-    <hyperlink ref="J122" r:id="rId119"/>
-    <hyperlink ref="J123" r:id="rId120"/>
-    <hyperlink ref="J124" r:id="rId121"/>
-    <hyperlink ref="J125" r:id="rId122"/>
-    <hyperlink ref="J126" r:id="rId123"/>
-    <hyperlink ref="J127" r:id="rId124"/>
-    <hyperlink ref="J131" r:id="rId125"/>
-    <hyperlink ref="J132" r:id="rId126"/>
-    <hyperlink ref="J133" r:id="rId127"/>
-    <hyperlink ref="J134" r:id="rId128"/>
-    <hyperlink ref="J135" r:id="rId129"/>
-    <hyperlink ref="J136" r:id="rId130"/>
-    <hyperlink ref="J137" r:id="rId131"/>
-    <hyperlink ref="J138" r:id="rId132"/>
-    <hyperlink ref="J139" r:id="rId133"/>
-    <hyperlink ref="J140" r:id="rId134"/>
-    <hyperlink ref="J141" r:id="rId135"/>
-    <hyperlink ref="J142" r:id="rId136"/>
-    <hyperlink ref="J143" r:id="rId137"/>
-    <hyperlink ref="J144" r:id="rId138"/>
-    <hyperlink ref="J145" r:id="rId139"/>
-    <hyperlink ref="J146" r:id="rId140"/>
-    <hyperlink ref="J147" r:id="rId141"/>
-    <hyperlink ref="J148" r:id="rId142"/>
-    <hyperlink ref="J149" r:id="rId143"/>
-    <hyperlink ref="J150" r:id="rId144"/>
-    <hyperlink ref="J151" r:id="rId145"/>
-    <hyperlink ref="J152" r:id="rId146"/>
-    <hyperlink ref="J153" r:id="rId147"/>
-    <hyperlink ref="J154" r:id="rId148"/>
-    <hyperlink ref="J155" r:id="rId149"/>
-    <hyperlink ref="J156" r:id="rId150"/>
-    <hyperlink ref="J157" r:id="rId151"/>
-    <hyperlink ref="J158" r:id="rId152"/>
-    <hyperlink ref="J159" r:id="rId153"/>
-    <hyperlink ref="J160" r:id="rId154"/>
-    <hyperlink ref="J161" r:id="rId155"/>
-    <hyperlink ref="J163" r:id="rId156"/>
-    <hyperlink ref="J165" r:id="rId157"/>
-    <hyperlink ref="J166" r:id="rId158"/>
-    <hyperlink ref="J167" r:id="rId159"/>
-    <hyperlink ref="J168" r:id="rId160"/>
-    <hyperlink ref="J171" r:id="rId161"/>
-    <hyperlink ref="J172" r:id="rId162"/>
-    <hyperlink ref="J173" r:id="rId163"/>
-    <hyperlink ref="J174" r:id="rId164"/>
-    <hyperlink ref="J175" r:id="rId165"/>
-    <hyperlink ref="J176" r:id="rId166"/>
-    <hyperlink ref="J177" r:id="rId167"/>
-    <hyperlink ref="J178" r:id="rId168"/>
-    <hyperlink ref="J179" r:id="rId169"/>
-    <hyperlink ref="J180" r:id="rId170"/>
-    <hyperlink ref="J181" r:id="rId171"/>
-    <hyperlink ref="J182" r:id="rId172"/>
-    <hyperlink ref="J183" r:id="rId173"/>
-    <hyperlink ref="J184" r:id="rId174"/>
-    <hyperlink ref="J185" r:id="rId175"/>
-    <hyperlink ref="J186" r:id="rId176"/>
-    <hyperlink ref="J187" r:id="rId177"/>
-    <hyperlink ref="J188" r:id="rId178"/>
-    <hyperlink ref="J189" r:id="rId179"/>
-    <hyperlink ref="J190" r:id="rId180"/>
-    <hyperlink ref="J191" r:id="rId181"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J93" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J94" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J96" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J97" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J98" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J99" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J100" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J101" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J102" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J103" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J104" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J105" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J106" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J107" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J108" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J110" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J112" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J113" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J114" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J115" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J116" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J117" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J118" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J119" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J120" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J121" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J122" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J123" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J124" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J125" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J126" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J127" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J131" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J132" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J133" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="J134" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J135" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J136" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J137" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J138" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J139" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="J140" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="J141" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J142" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="J143" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="J144" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="J145" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="J146" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="J147" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="J148" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="J149" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="J150" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="J151" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J152" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="J153" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J154" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="J155" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J156" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="J157" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J158" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="J159" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="J160" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="J161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="J163" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="J165" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="J166" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="J167" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="J168" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="J171" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="J172" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="J173" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="J174" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="J175" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="J176" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="J177" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="J178" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="J179" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="J180" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="J181" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="J182" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="J183" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="J184" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="J185" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="J186" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="J187" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="J188" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="J189" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="J190" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="J191" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -16739,7 +16739,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Di Giacomo, Matteo</t>
+          <t>Di Giacomo, Matteo</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -23686,7 +23686,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-54</t>
+          <t>F4E-OMF-1159-01-01-125</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -50972,13 +50972,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AF5D33C-7633-40DE-98C5-9D86E69A4FB5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E8C719-C8BC-48C8-88E1-4283A5F70F24}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADAAA974-85EC-4255-B458-98FF1A5CBB2A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28922ACF-8DC9-485A-8226-30D8E8BDF380}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF56BF68-60F1-42DA-8A4F-C780AE2AD020}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1A58F7E-80A9-4E24-A4BC-8F33093E837C}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -9546,7 +9546,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Juan Martín Val</t>
+          <t>Juan Martín</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -18765,7 +18765,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://idm.f4e.europa.eu/default.aspx?uid=39MJUL</t>
+          <t>https://idm.f4e.europa.eu/?uid=39H73P</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -19216,89 +19216,85 @@
       <c r="BR75" t="inlineStr"/>
       <c r="BS75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00666</t>
+          <t>ATG-EU-RP-PC-F4E-25-00667</t>
         </is>
       </c>
       <c r="BT75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00667</t>
+          <t>ATG-EU-RP-PC-F4E-25-00668</t>
         </is>
       </c>
       <c r="BU75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00668</t>
+          <t>ATG-EU-RP-PC-F4E-25-00669</t>
         </is>
       </c>
       <c r="BV75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00669</t>
+          <t>ATG-EU-RP-PC-F4E-25-00670</t>
         </is>
       </c>
       <c r="BW75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00670</t>
+          <t>ATG-EU-RP-PC-F4E-25-00671</t>
         </is>
       </c>
       <c r="BX75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00671</t>
+          <t>ATG-EU-RP-PC-F4E-25-00672</t>
         </is>
       </c>
       <c r="BY75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00672</t>
+          <t>ATG-EU-RP-PC-F4E-25-00673</t>
         </is>
       </c>
       <c r="BZ75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00673</t>
+          <t>ATG-EU-RP-PC-F4E-25-00674</t>
         </is>
       </c>
       <c r="CA75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00674</t>
+          <t>ATG-EU-RP-PC-F4E-25-00675</t>
         </is>
       </c>
       <c r="CB75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00675</t>
+          <t>ATG-EU-RP-PC-F4E-25-00676</t>
         </is>
       </c>
       <c r="CC75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00676</t>
+          <t>ATG-EU-RP-PC-F4E-25-00677</t>
         </is>
       </c>
       <c r="CD75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00677</t>
+          <t>ATG-EU-RP-PC-F4E-25-00678</t>
         </is>
       </c>
       <c r="CE75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00678</t>
+          <t>ATG-EU-RP-PC-F4E-25-00679</t>
         </is>
       </c>
       <c r="CF75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00679</t>
+          <t>ATG-EU-RP-PC-F4E-25-00680</t>
         </is>
       </c>
       <c r="CG75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00680</t>
+          <t>ATG-EU-RP-PC-F4E-25-00681</t>
         </is>
       </c>
       <c r="CH75" t="inlineStr">
         <is>
-          <t>ATG-EU-RP-PC-F4E-25-00681</t>
-        </is>
-      </c>
-      <c r="CI75" t="inlineStr">
-        <is>
           <t>ATG-EU-RP-PC-F4E-25-00682</t>
         </is>
       </c>
+      <c r="CI75" t="inlineStr"/>
       <c r="CJ75" t="inlineStr"/>
       <c r="CK75" t="inlineStr"/>
       <c r="CL75" t="inlineStr"/>
@@ -20298,7 +20294,7 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="n">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
@@ -20846,7 +20842,7 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="n">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
@@ -21164,7 +21160,7 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="n">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
@@ -21482,7 +21478,7 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="n">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
@@ -21780,7 +21776,7 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="n">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
@@ -22416,7 +22412,7 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="n">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
@@ -22682,7 +22678,7 @@
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="n">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
@@ -23000,7 +22996,7 @@
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="n">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
@@ -23222,7 +23218,7 @@
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="n">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
@@ -23758,7 +23754,7 @@
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="n">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
@@ -24326,7 +24322,7 @@
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="n">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
@@ -24644,7 +24640,7 @@
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="n">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
@@ -26129,7 +26125,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Miguel Garcia Lopez Astilleros</t>
+          <t>Miguel García López Astilleros</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -26422,12 +26418,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-25</t>
+          <t>F4E-OMF-1159-01-01-129</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Bernardo Balleste</t>
+          <t>Bernardo Ballesté</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -26736,12 +26732,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-25</t>
+          <t>F4E-OMF-1159-01-01-129</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Marc Mari Gimeno</t>
+          <t>Marc Marí Gimeno</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -27050,12 +27046,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-26</t>
+          <t>F4E-OMF-1159-01-01-135</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Jose Antonio Soto Sanz</t>
+          <t>José Antonio Soto Sanz</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -27595,7 +27591,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Carlos Rodriguez Hevia</t>
+          <t>Carlos Rodríguez Hevia</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -28139,7 +28135,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Jordi Jimenez</t>
+          <t>Jordi Jiménez</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -28436,12 +28432,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-39</t>
+          <t>F4E-OMF-1159-01-01-138</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Domingo Martinez Santiago</t>
+          <t>Domingo Martínez Santiago</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -28746,12 +28742,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-39</t>
+          <t>F4E-OMF-1159-01-01-138</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Victor Carrero Gonzalez</t>
+          <t>Víctor Carrero González</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -29048,7 +29044,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-42</t>
+          <t>F4E-OMF-1159-01-01-143</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -29358,12 +29354,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-51</t>
+          <t>F4E-OMF-1159-01-01-140</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Juan Carlos Salgado Perez</t>
+          <t>Juan Carlos Salgado Pérez</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -29668,7 +29664,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-52</t>
+          <t>F4E-OMF-1159-01-01-127</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -30216,7 +30212,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-66</t>
+          <t>F4E-OMF-1159-01-01-136</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -32768,7 +32764,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-34</t>
+          <t>F4E-OMF-1159-01-01-136</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -33063,89 +33059,97 @@
           <t>ATG-EU-RP-PC-F4E-24-09571</t>
         </is>
       </c>
-      <c r="BN125" t="inlineStr">
+      <c r="BN125" t="inlineStr"/>
+      <c r="BO125" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-24-09570</t>
+        </is>
+      </c>
+      <c r="BP125" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-24-09571</t>
+        </is>
+      </c>
+      <c r="BQ125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09572</t>
         </is>
       </c>
-      <c r="BO125" t="inlineStr">
+      <c r="BR125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09573</t>
         </is>
       </c>
-      <c r="BP125" t="inlineStr">
+      <c r="BS125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09574</t>
         </is>
       </c>
-      <c r="BQ125" t="inlineStr">
+      <c r="BT125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09575</t>
         </is>
       </c>
-      <c r="BR125" t="inlineStr">
+      <c r="BU125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09576</t>
         </is>
       </c>
-      <c r="BS125" t="inlineStr">
+      <c r="BV125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09577</t>
         </is>
       </c>
-      <c r="BT125" t="inlineStr">
+      <c r="BW125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09578</t>
         </is>
       </c>
-      <c r="BU125" t="inlineStr">
+      <c r="BX125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09579</t>
         </is>
       </c>
-      <c r="BV125" t="inlineStr">
+      <c r="BY125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09580</t>
         </is>
       </c>
-      <c r="BW125" t="inlineStr">
+      <c r="BZ125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09581</t>
         </is>
       </c>
-      <c r="BX125" t="inlineStr">
+      <c r="CA125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09582</t>
         </is>
       </c>
-      <c r="BY125" t="inlineStr">
+      <c r="CB125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09583</t>
         </is>
       </c>
-      <c r="BZ125" t="inlineStr">
+      <c r="CC125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09584</t>
         </is>
       </c>
-      <c r="CA125" t="inlineStr">
+      <c r="CD125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09585</t>
         </is>
       </c>
-      <c r="CB125" t="inlineStr">
+      <c r="CE125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09586</t>
         </is>
       </c>
-      <c r="CC125" t="inlineStr">
+      <c r="CF125" t="inlineStr">
         <is>
           <t>ATG-EU-RP-PC-F4E-24-09587</t>
         </is>
       </c>
-      <c r="CD125" t="inlineStr"/>
-      <c r="CE125" t="inlineStr"/>
-      <c r="CF125" t="inlineStr"/>
       <c r="CG125" t="inlineStr"/>
       <c r="CH125" t="inlineStr"/>
       <c r="CI125" t="inlineStr"/>
@@ -45818,7 +45822,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">F4E-OMF-1159-01-01-130 </t>
+          <t>F4E-OMF-1159-01-01-130</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -46060,7 +46064,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">F4E-OMF-1159-01-01-119 </t>
+          <t>F4E-OMF-1159-01-01-119</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -50498,45 +50502,129 @@
       <c r="BP197" t="inlineStr"/>
       <c r="BQ197" t="inlineStr"/>
       <c r="BR197" t="inlineStr"/>
-      <c r="BS197" t="inlineStr"/>
-      <c r="BT197" t="inlineStr"/>
-      <c r="BU197" t="inlineStr"/>
-      <c r="BV197" t="inlineStr"/>
-      <c r="BW197" t="inlineStr"/>
-      <c r="BX197" t="inlineStr"/>
-      <c r="BY197" t="inlineStr"/>
-      <c r="BZ197" t="inlineStr"/>
-      <c r="CA197" t="inlineStr"/>
-      <c r="CB197" t="inlineStr"/>
-      <c r="CC197" t="inlineStr"/>
-      <c r="CD197" t="inlineStr"/>
-      <c r="CE197" t="inlineStr"/>
-      <c r="CF197" t="inlineStr"/>
-      <c r="CG197" t="inlineStr"/>
-      <c r="CH197" t="inlineStr"/>
-      <c r="CI197" t="inlineStr"/>
-      <c r="CJ197" t="inlineStr"/>
+      <c r="BS197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01261</t>
+        </is>
+      </c>
+      <c r="BT197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01262</t>
+        </is>
+      </c>
+      <c r="BU197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01263</t>
+        </is>
+      </c>
+      <c r="BV197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01264</t>
+        </is>
+      </c>
+      <c r="BW197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01265</t>
+        </is>
+      </c>
+      <c r="BX197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01266</t>
+        </is>
+      </c>
+      <c r="BY197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01267</t>
+        </is>
+      </c>
+      <c r="BZ197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01268</t>
+        </is>
+      </c>
+      <c r="CA197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01269</t>
+        </is>
+      </c>
+      <c r="CB197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01270</t>
+        </is>
+      </c>
+      <c r="CC197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01271</t>
+        </is>
+      </c>
+      <c r="CD197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01272</t>
+        </is>
+      </c>
+      <c r="CE197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01273</t>
+        </is>
+      </c>
+      <c r="CF197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01274</t>
+        </is>
+      </c>
+      <c r="CG197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01275</t>
+        </is>
+      </c>
+      <c r="CH197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01276</t>
+        </is>
+      </c>
+      <c r="CI197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01277</t>
+        </is>
+      </c>
+      <c r="CJ197" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-01278</t>
+        </is>
+      </c>
       <c r="CK197" t="inlineStr"/>
       <c r="CL197" t="inlineStr"/>
       <c r="CM197" t="inlineStr"/>
       <c r="CN197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>F4E-OMF-1159-01-01-159</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Matteo</t>
+          <t>Matteo Faoro</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Naka</t>
+        </is>
+      </c>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr"/>
@@ -50620,21 +50708,33 @@
       <c r="CN198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr"/>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>F4E-OMF-1159-01-01-159</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Michele</t>
+          <t>Michele Piccirelli</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Naka</t>
+        </is>
+      </c>
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
@@ -50972,13 +51072,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E8C719-C8BC-48C8-88E1-4283A5F70F24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955D5721-7C79-4251-97C4-6142E45E2903}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28922ACF-8DC9-485A-8226-30D8E8BDF380}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{353EB616-4B36-4EF6-AD9E-F2A7D546ECF3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1A58F7E-80A9-4E24-A4BC-8F33093E837C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8171EE48-A152-4D00-B607-DFDC20B73DAA}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -50089,7 +50089,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Naim Forghani</t>
+          <t>Naim Forghani Teruel</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -50112,12 +50112,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Naim Forghani</t>
+          <t>Naim Forghani Teruel</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Forghani, Naim</t>
+          <t>Forghani Teruel, Naim</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
@@ -52724,13 +52724,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AE02ACA-023E-4078-9F7A-6FF42EA5DBD4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F7324BF-27FD-41D2-99E7-AE8C7C77663A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F0CF9B9-ACE3-4154-994A-7BE8198FADBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{615CB113-DDBA-4650-B939-5C6E9282A9B9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8597F362-8C8C-4582-9453-1801AB67241A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2DBCF89-9D3F-4274-9585-AE23A1C7B802}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -9741,7 +9741,11 @@
           <t>Cristo Peregrin</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>B - Senior Expert Mech. Eng.</t>
+        </is>
+      </c>
       <c r="E35" s="2" t="n">
         <v>45748</v>
       </c>
@@ -9943,7 +9947,11 @@
           <t>Cristo Peregrin</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>D - Senior Expert Elect. Eng.</t>
+        </is>
+      </c>
       <c r="E36" s="2" t="n">
         <v>45748</v>
       </c>
@@ -9970,7 +9978,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Barcleona</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -52966,13 +52974,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCCFCCC2-72EE-4498-B228-877E1A4C8F87}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F825FAF-B487-42AD-AEC0-42F1EDDF8CF6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA18564-20C5-45A1-A996-4C7D09D1DC33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A932482A-27CD-42F7-924D-1D44D8385272}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BF8FC59-94DC-49AB-81A9-853CED63D41D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E414C1-2DB2-4D33-9196-0402EA203815}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -9555,7 +9555,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Martín, Juan </t>
+          <t>Martín, Juan</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -34387,7 +34387,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Rodrigues, Alexandra</t>
+          <t>Rodrigues, Maria Alexandra</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -48836,12 +48836,20 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Francesc García</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Garcia, Francesc</t>
+        </is>
+      </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>https://idm.f4e.europa.eu/?uid=35KZL3</t>
+          <t>https://idm.f4e.europa.eu/?uid=3C55AH</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -52974,13 +52982,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F825FAF-B487-42AD-AEC0-42F1EDDF8CF6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AF5AB7-5DA1-4222-8338-5EA35E3AA077}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A932482A-27CD-42F7-924D-1D44D8385272}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4CEAA81-E03E-4675-B0B0-C17530658747}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E414C1-2DB2-4D33-9196-0402EA203815}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A4C32C8-997F-4078-A22E-689E8F582354}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -3030,12 +3030,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Jose Duo</t>
+          <t>Jose Ignacio Duo</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Duo, Jose</t>
+          <t>Duo, José</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>José Vargas</t>
+          <t>Jose Vargas</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -9756,12 +9756,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>José Vargas</t>
+          <t>Jose Vargas</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Vargas, José</t>
+          <t>Vargas, Jose</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -51988,7 +51988,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-80</t>
+          <t>F4E-OMF-1159-01-01-144</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -52982,13 +52982,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AF5AB7-5DA1-4222-8338-5EA35E3AA077}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983F939C-A540-48B8-BF24-7525B2423488}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4CEAA81-E03E-4675-B0B0-C17530658747}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B4C4C2-5A6F-4362-AC6F-BC5008F40D25}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A4C32C8-997F-4078-A22E-689E8F582354}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE20EC5-2192-4412-855A-3AED22D13A93}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -50966,7 +50966,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Shoichi Mizumaki</t>
+          <t>Mizumaki Shoichi</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -52982,13 +52982,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983F939C-A540-48B8-BF24-7525B2423488}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57B98396-DCAA-41D0-9C76-BE63F971F937}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B4C4C2-5A6F-4362-AC6F-BC5008F40D25}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3312479-EC71-476B-9DE0-BC336989E6EB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAE20EC5-2192-4412-855A-3AED22D13A93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE330DDB-C00C-46B8-A835-389B7272C9F4}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -51784,7 +51784,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-142</t>
+          <t>F4E-OMF-1159-01-01-131</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -51817,7 +51817,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Cambria, Chiara</t>
+          <t>Cambria Zurro, Chiara</t>
         </is>
       </c>
       <c r="I204" t="inlineStr"/>
@@ -52982,13 +52982,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57B98396-DCAA-41D0-9C76-BE63F971F937}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB30BEC-EDFA-4E79-80F4-A744051CFA8F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3312479-EC71-476B-9DE0-BC336989E6EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F945EBD6-AD38-4A7D-AB0D-F712663ABA95}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE330DDB-C00C-46B8-A835-389B7272C9F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F99C66CC-EDBC-43FA-A336-78F1C9E933C3}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -23723,7 +23723,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Cretu, Marian</t>
+          <t>Cretu, Marian-Florentin</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -52982,13 +52982,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB30BEC-EDFA-4E79-80F4-A744051CFA8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABEF5742-5A98-453E-A76E-7B2685A60E0F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F945EBD6-AD38-4A7D-AB0D-F712663ABA95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0768E166-DA02-4F16-9AFC-7A07EEAE30C0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F99C66CC-EDBC-43FA-A336-78F1C9E933C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98ADF764-78E9-4F3D-A366-CBEB31DF0916}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -36048,7 +36048,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">F4E-OMF-1159-01-01-164 </t>
+          <t>F4E-OMF-1159-01-01-164</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -36508,13 +36508,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE25B42A-B949-4D30-B20E-274550E94D1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69BC99F-EF83-45D9-AE30-FE4802D8486C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2358AF14-32E7-4EA7-930E-73B75BBDA771}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD8F347E-A7F3-45D5-A8E9-EB46C3B6EC1B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E2103D-83D7-400B-9F38-01A864F30ADC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47465075-3A2C-4D45-AE4E-3C9C64C8ED17}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CR138"/>
+  <dimension ref="A1:CV138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,6 +916,26 @@
       <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 95</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 96</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 97</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 98</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 99</t>
         </is>
       </c>
     </row>
@@ -1160,6 +1180,10 @@
       <c r="CP2" t="inlineStr"/>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1478,6 +1502,10 @@
       <c r="CP3" t="inlineStr"/>
       <c r="CQ3" t="inlineStr"/>
       <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1712,6 +1740,10 @@
       <c r="CP4" t="inlineStr"/>
       <c r="CQ4" t="inlineStr"/>
       <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1954,6 +1986,10 @@
       <c r="CP5" t="inlineStr"/>
       <c r="CQ5" t="inlineStr"/>
       <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2164,6 +2200,10 @@
       <c r="CP6" t="inlineStr"/>
       <c r="CQ6" t="inlineStr"/>
       <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2398,6 +2438,10 @@
       <c r="CP7" t="inlineStr"/>
       <c r="CQ7" t="inlineStr"/>
       <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2608,6 +2652,10 @@
       <c r="CP8" t="inlineStr"/>
       <c r="CQ8" t="inlineStr"/>
       <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2934,6 +2982,10 @@
       <c r="CP9" t="inlineStr"/>
       <c r="CQ9" t="inlineStr"/>
       <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3260,6 +3312,10 @@
       <c r="CP10" t="inlineStr"/>
       <c r="CQ10" t="inlineStr"/>
       <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3586,6 +3642,10 @@
       <c r="CP11" t="inlineStr"/>
       <c r="CQ11" t="inlineStr"/>
       <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3896,6 +3956,10 @@
       <c r="CP12" t="inlineStr"/>
       <c r="CQ12" t="inlineStr"/>
       <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4202,6 +4266,10 @@
       <c r="CP13" t="inlineStr"/>
       <c r="CQ13" t="inlineStr"/>
       <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4528,6 +4596,10 @@
       <c r="CP14" t="inlineStr"/>
       <c r="CQ14" t="inlineStr"/>
       <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4854,6 +4926,10 @@
       <c r="CP15" t="inlineStr"/>
       <c r="CQ15" t="inlineStr"/>
       <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5180,6 +5256,10 @@
       <c r="CP16" t="inlineStr"/>
       <c r="CQ16" t="inlineStr"/>
       <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5530,6 +5610,10 @@
       <c r="CP17" t="inlineStr"/>
       <c r="CQ17" t="inlineStr"/>
       <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5848,6 +5932,10 @@
       <c r="CP18" t="inlineStr"/>
       <c r="CQ18" t="inlineStr"/>
       <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6174,6 +6262,10 @@
       <c r="CP19" t="inlineStr"/>
       <c r="CQ19" t="inlineStr"/>
       <c r="CR19" t="inlineStr"/>
+      <c r="CS19" t="inlineStr"/>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6460,6 +6552,10 @@
       <c r="CP20" t="inlineStr"/>
       <c r="CQ20" t="inlineStr"/>
       <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6670,11 +6766,15 @@
       <c r="CP21" t="inlineStr"/>
       <c r="CQ21" t="inlineStr"/>
       <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="inlineStr"/>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-84</t>
+          <t>F4E-OMF-1159-01-01-162</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -6984,6 +7084,10 @@
       <c r="CP22" t="inlineStr"/>
       <c r="CQ22" t="inlineStr"/>
       <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7194,11 +7298,15 @@
       <c r="CP23" t="inlineStr"/>
       <c r="CQ23" t="inlineStr"/>
       <c r="CR23" t="inlineStr"/>
+      <c r="CS23" t="inlineStr"/>
+      <c r="CT23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr"/>
+      <c r="CV23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>F4E-OMF-1159-01-01-131</t>
+          <t>F4E-OMF-1159-01-01-142</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7404,6 +7512,10 @@
       <c r="CP24" t="inlineStr"/>
       <c r="CQ24" t="inlineStr"/>
       <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7614,6 +7726,10 @@
       <c r="CP25" t="inlineStr"/>
       <c r="CQ25" t="inlineStr"/>
       <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7824,6 +7940,10 @@
       <c r="CP26" t="inlineStr"/>
       <c r="CQ26" t="inlineStr"/>
       <c r="CR26" t="inlineStr"/>
+      <c r="CS26" t="inlineStr"/>
+      <c r="CT26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8034,6 +8154,10 @@
       <c r="CP27" t="inlineStr"/>
       <c r="CQ27" t="inlineStr"/>
       <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr"/>
+      <c r="CV27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8348,6 +8472,10 @@
       <c r="CP28" t="inlineStr"/>
       <c r="CQ28" t="inlineStr"/>
       <c r="CR28" t="inlineStr"/>
+      <c r="CS28" t="inlineStr"/>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr"/>
+      <c r="CV28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8568,28 +8696,132 @@
           <t>ATG-NL-RP-PC-F4E-23-01727</t>
         </is>
       </c>
-      <c r="BW29" t="inlineStr"/>
-      <c r="BX29" t="inlineStr"/>
-      <c r="BY29" t="inlineStr"/>
-      <c r="BZ29" t="inlineStr"/>
-      <c r="CA29" t="inlineStr"/>
-      <c r="CB29" t="inlineStr"/>
-      <c r="CC29" t="inlineStr"/>
-      <c r="CD29" t="inlineStr"/>
-      <c r="CE29" t="inlineStr"/>
-      <c r="CF29" t="inlineStr"/>
-      <c r="CG29" t="inlineStr"/>
-      <c r="CH29" t="inlineStr"/>
-      <c r="CI29" t="inlineStr"/>
-      <c r="CJ29" t="inlineStr"/>
-      <c r="CK29" t="inlineStr"/>
-      <c r="CL29" t="inlineStr"/>
-      <c r="CM29" t="inlineStr"/>
-      <c r="CN29" t="inlineStr"/>
-      <c r="CO29" t="inlineStr"/>
-      <c r="CP29" t="inlineStr"/>
-      <c r="CQ29" t="inlineStr"/>
-      <c r="CR29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03558</t>
+        </is>
+      </c>
+      <c r="BX29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03559</t>
+        </is>
+      </c>
+      <c r="BY29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03560</t>
+        </is>
+      </c>
+      <c r="BZ29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03561</t>
+        </is>
+      </c>
+      <c r="CA29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03562</t>
+        </is>
+      </c>
+      <c r="CB29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03563</t>
+        </is>
+      </c>
+      <c r="CC29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03564</t>
+        </is>
+      </c>
+      <c r="CD29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03565</t>
+        </is>
+      </c>
+      <c r="CE29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03566</t>
+        </is>
+      </c>
+      <c r="CF29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03567</t>
+        </is>
+      </c>
+      <c r="CG29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03568</t>
+        </is>
+      </c>
+      <c r="CH29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03569</t>
+        </is>
+      </c>
+      <c r="CI29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03570</t>
+        </is>
+      </c>
+      <c r="CJ29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03571</t>
+        </is>
+      </c>
+      <c r="CK29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03572</t>
+        </is>
+      </c>
+      <c r="CL29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03573</t>
+        </is>
+      </c>
+      <c r="CM29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03574</t>
+        </is>
+      </c>
+      <c r="CN29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03575</t>
+        </is>
+      </c>
+      <c r="CO29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03576</t>
+        </is>
+      </c>
+      <c r="CP29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03577</t>
+        </is>
+      </c>
+      <c r="CQ29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03578</t>
+        </is>
+      </c>
+      <c r="CR29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03579</t>
+        </is>
+      </c>
+      <c r="CS29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03580</t>
+        </is>
+      </c>
+      <c r="CT29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03581</t>
+        </is>
+      </c>
+      <c r="CU29" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03582</t>
+        </is>
+      </c>
+      <c r="CV29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8810,28 +9042,136 @@
           <t>ATG-NL-RP-PC-F4E-23-01867</t>
         </is>
       </c>
-      <c r="BW30" t="inlineStr"/>
-      <c r="BX30" t="inlineStr"/>
-      <c r="BY30" t="inlineStr"/>
-      <c r="BZ30" t="inlineStr"/>
-      <c r="CA30" t="inlineStr"/>
-      <c r="CB30" t="inlineStr"/>
-      <c r="CC30" t="inlineStr"/>
-      <c r="CD30" t="inlineStr"/>
-      <c r="CE30" t="inlineStr"/>
-      <c r="CF30" t="inlineStr"/>
-      <c r="CG30" t="inlineStr"/>
-      <c r="CH30" t="inlineStr"/>
-      <c r="CI30" t="inlineStr"/>
-      <c r="CJ30" t="inlineStr"/>
-      <c r="CK30" t="inlineStr"/>
-      <c r="CL30" t="inlineStr"/>
-      <c r="CM30" t="inlineStr"/>
-      <c r="CN30" t="inlineStr"/>
-      <c r="CO30" t="inlineStr"/>
-      <c r="CP30" t="inlineStr"/>
-      <c r="CQ30" t="inlineStr"/>
-      <c r="CR30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03550</t>
+        </is>
+      </c>
+      <c r="BX30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03549</t>
+        </is>
+      </c>
+      <c r="BY30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03548</t>
+        </is>
+      </c>
+      <c r="BZ30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03547</t>
+        </is>
+      </c>
+      <c r="CA30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03546</t>
+        </is>
+      </c>
+      <c r="CB30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03545</t>
+        </is>
+      </c>
+      <c r="CC30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03544</t>
+        </is>
+      </c>
+      <c r="CD30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03543</t>
+        </is>
+      </c>
+      <c r="CE30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03542</t>
+        </is>
+      </c>
+      <c r="CF30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03541</t>
+        </is>
+      </c>
+      <c r="CG30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03540</t>
+        </is>
+      </c>
+      <c r="CH30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03539</t>
+        </is>
+      </c>
+      <c r="CI30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03538</t>
+        </is>
+      </c>
+      <c r="CJ30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03537</t>
+        </is>
+      </c>
+      <c r="CK30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03536</t>
+        </is>
+      </c>
+      <c r="CL30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03535</t>
+        </is>
+      </c>
+      <c r="CM30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03534</t>
+        </is>
+      </c>
+      <c r="CN30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03533</t>
+        </is>
+      </c>
+      <c r="CO30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03532</t>
+        </is>
+      </c>
+      <c r="CP30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03531</t>
+        </is>
+      </c>
+      <c r="CQ30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03530</t>
+        </is>
+      </c>
+      <c r="CR30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03529</t>
+        </is>
+      </c>
+      <c r="CS30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03528</t>
+        </is>
+      </c>
+      <c r="CT30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03527</t>
+        </is>
+      </c>
+      <c r="CU30" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03526</t>
+        </is>
+      </c>
+      <c r="CV30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ATG-EU-RP-PC-F4E-25-03525 </t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9072,6 +9412,10 @@
       <c r="CP31" t="inlineStr"/>
       <c r="CQ31" t="inlineStr"/>
       <c r="CR31" t="inlineStr"/>
+      <c r="CS31" t="inlineStr"/>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr"/>
+      <c r="CV31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9304,6 +9648,10 @@
       <c r="CP32" t="inlineStr"/>
       <c r="CQ32" t="inlineStr"/>
       <c r="CR32" t="inlineStr"/>
+      <c r="CS32" t="inlineStr"/>
+      <c r="CT32" t="inlineStr"/>
+      <c r="CU32" t="inlineStr"/>
+      <c r="CV32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9512,6 +9860,10 @@
       <c r="CP33" t="inlineStr"/>
       <c r="CQ33" t="inlineStr"/>
       <c r="CR33" t="inlineStr"/>
+      <c r="CS33" t="inlineStr"/>
+      <c r="CT33" t="inlineStr"/>
+      <c r="CU33" t="inlineStr"/>
+      <c r="CV33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9728,6 +10080,10 @@
       <c r="CP34" t="inlineStr"/>
       <c r="CQ34" t="inlineStr"/>
       <c r="CR34" t="inlineStr"/>
+      <c r="CS34" t="inlineStr"/>
+      <c r="CT34" t="inlineStr"/>
+      <c r="CU34" t="inlineStr"/>
+      <c r="CV34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9936,6 +10292,10 @@
       <c r="CP35" t="inlineStr"/>
       <c r="CQ35" t="inlineStr"/>
       <c r="CR35" t="inlineStr"/>
+      <c r="CS35" t="inlineStr"/>
+      <c r="CT35" t="inlineStr"/>
+      <c r="CU35" t="inlineStr"/>
+      <c r="CV35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10152,6 +10512,10 @@
       <c r="CP36" t="inlineStr"/>
       <c r="CQ36" t="inlineStr"/>
       <c r="CR36" t="inlineStr"/>
+      <c r="CS36" t="inlineStr"/>
+      <c r="CT36" t="inlineStr"/>
+      <c r="CU36" t="inlineStr"/>
+      <c r="CV36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10356,6 +10720,10 @@
       <c r="CP37" t="inlineStr"/>
       <c r="CQ37" t="inlineStr"/>
       <c r="CR37" t="inlineStr"/>
+      <c r="CS37" t="inlineStr"/>
+      <c r="CT37" t="inlineStr"/>
+      <c r="CU37" t="inlineStr"/>
+      <c r="CV37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10556,6 +10924,10 @@
       <c r="CP38" t="inlineStr"/>
       <c r="CQ38" t="inlineStr"/>
       <c r="CR38" t="inlineStr"/>
+      <c r="CS38" t="inlineStr"/>
+      <c r="CT38" t="inlineStr"/>
+      <c r="CU38" t="inlineStr"/>
+      <c r="CV38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10764,6 +11136,10 @@
       <c r="CP39" t="inlineStr"/>
       <c r="CQ39" t="inlineStr"/>
       <c r="CR39" t="inlineStr"/>
+      <c r="CS39" t="inlineStr"/>
+      <c r="CT39" t="inlineStr"/>
+      <c r="CU39" t="inlineStr"/>
+      <c r="CV39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10960,6 +11336,10 @@
       <c r="CP40" t="inlineStr"/>
       <c r="CQ40" t="inlineStr"/>
       <c r="CR40" t="inlineStr"/>
+      <c r="CS40" t="inlineStr"/>
+      <c r="CT40" t="inlineStr"/>
+      <c r="CU40" t="inlineStr"/>
+      <c r="CV40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11156,6 +11536,10 @@
       <c r="CP41" t="inlineStr"/>
       <c r="CQ41" t="inlineStr"/>
       <c r="CR41" t="inlineStr"/>
+      <c r="CS41" t="inlineStr"/>
+      <c r="CT41" t="inlineStr"/>
+      <c r="CU41" t="inlineStr"/>
+      <c r="CV41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11350,6 +11734,10 @@
       <c r="CP42" t="inlineStr"/>
       <c r="CQ42" t="inlineStr"/>
       <c r="CR42" t="inlineStr"/>
+      <c r="CS42" t="inlineStr"/>
+      <c r="CT42" t="inlineStr"/>
+      <c r="CU42" t="inlineStr"/>
+      <c r="CV42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11554,6 +11942,10 @@
       <c r="CP43" t="inlineStr"/>
       <c r="CQ43" t="inlineStr"/>
       <c r="CR43" t="inlineStr"/>
+      <c r="CS43" t="inlineStr"/>
+      <c r="CT43" t="inlineStr"/>
+      <c r="CU43" t="inlineStr"/>
+      <c r="CV43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11746,6 +12138,10 @@
       <c r="CP44" t="inlineStr"/>
       <c r="CQ44" t="inlineStr"/>
       <c r="CR44" t="inlineStr"/>
+      <c r="CS44" t="inlineStr"/>
+      <c r="CT44" t="inlineStr"/>
+      <c r="CU44" t="inlineStr"/>
+      <c r="CV44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11910,6 +12306,10 @@
       <c r="CP45" t="inlineStr"/>
       <c r="CQ45" t="inlineStr"/>
       <c r="CR45" t="inlineStr"/>
+      <c r="CS45" t="inlineStr"/>
+      <c r="CT45" t="inlineStr"/>
+      <c r="CU45" t="inlineStr"/>
+      <c r="CV45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12232,6 +12632,10 @@
       <c r="CP46" t="inlineStr"/>
       <c r="CQ46" t="inlineStr"/>
       <c r="CR46" t="inlineStr"/>
+      <c r="CS46" t="inlineStr"/>
+      <c r="CT46" t="inlineStr"/>
+      <c r="CU46" t="inlineStr"/>
+      <c r="CV46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12518,6 +12922,10 @@
       <c r="CP47" t="inlineStr"/>
       <c r="CQ47" t="inlineStr"/>
       <c r="CR47" t="inlineStr"/>
+      <c r="CS47" t="inlineStr"/>
+      <c r="CT47" t="inlineStr"/>
+      <c r="CU47" t="inlineStr"/>
+      <c r="CV47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12840,6 +13248,10 @@
       <c r="CP48" t="inlineStr"/>
       <c r="CQ48" t="inlineStr"/>
       <c r="CR48" t="inlineStr"/>
+      <c r="CS48" t="inlineStr"/>
+      <c r="CT48" t="inlineStr"/>
+      <c r="CU48" t="inlineStr"/>
+      <c r="CV48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13162,6 +13574,10 @@
       <c r="CP49" t="inlineStr"/>
       <c r="CQ49" t="inlineStr"/>
       <c r="CR49" t="inlineStr"/>
+      <c r="CS49" t="inlineStr"/>
+      <c r="CT49" t="inlineStr"/>
+      <c r="CU49" t="inlineStr"/>
+      <c r="CV49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13484,6 +13900,10 @@
       <c r="CP50" t="inlineStr"/>
       <c r="CQ50" t="inlineStr"/>
       <c r="CR50" t="inlineStr"/>
+      <c r="CS50" t="inlineStr"/>
+      <c r="CT50" t="inlineStr"/>
+      <c r="CU50" t="inlineStr"/>
+      <c r="CV50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13806,6 +14226,10 @@
       <c r="CP51" t="inlineStr"/>
       <c r="CQ51" t="inlineStr"/>
       <c r="CR51" t="inlineStr"/>
+      <c r="CS51" t="inlineStr"/>
+      <c r="CT51" t="inlineStr"/>
+      <c r="CU51" t="inlineStr"/>
+      <c r="CV51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14108,6 +14532,10 @@
       <c r="CP52" t="inlineStr"/>
       <c r="CQ52" t="inlineStr"/>
       <c r="CR52" t="inlineStr"/>
+      <c r="CS52" t="inlineStr"/>
+      <c r="CT52" t="inlineStr"/>
+      <c r="CU52" t="inlineStr"/>
+      <c r="CV52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14430,6 +14858,10 @@
       <c r="CP53" t="inlineStr"/>
       <c r="CQ53" t="inlineStr"/>
       <c r="CR53" t="inlineStr"/>
+      <c r="CS53" t="inlineStr"/>
+      <c r="CT53" t="inlineStr"/>
+      <c r="CU53" t="inlineStr"/>
+      <c r="CV53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14700,6 +15132,10 @@
       <c r="CP54" t="inlineStr"/>
       <c r="CQ54" t="inlineStr"/>
       <c r="CR54" t="inlineStr"/>
+      <c r="CS54" t="inlineStr"/>
+      <c r="CT54" t="inlineStr"/>
+      <c r="CU54" t="inlineStr"/>
+      <c r="CV54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15022,6 +15458,10 @@
       <c r="CP55" t="inlineStr"/>
       <c r="CQ55" t="inlineStr"/>
       <c r="CR55" t="inlineStr"/>
+      <c r="CS55" t="inlineStr"/>
+      <c r="CT55" t="inlineStr"/>
+      <c r="CU55" t="inlineStr"/>
+      <c r="CV55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15248,6 +15688,10 @@
       <c r="CP56" t="inlineStr"/>
       <c r="CQ56" t="inlineStr"/>
       <c r="CR56" t="inlineStr"/>
+      <c r="CS56" t="inlineStr"/>
+      <c r="CT56" t="inlineStr"/>
+      <c r="CU56" t="inlineStr"/>
+      <c r="CV56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15570,6 +16014,10 @@
       <c r="CP57" t="inlineStr"/>
       <c r="CQ57" t="inlineStr"/>
       <c r="CR57" t="inlineStr"/>
+      <c r="CS57" t="inlineStr"/>
+      <c r="CT57" t="inlineStr"/>
+      <c r="CU57" t="inlineStr"/>
+      <c r="CV57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15912,6 +16360,10 @@
       <c r="CP58" t="inlineStr"/>
       <c r="CQ58" t="inlineStr"/>
       <c r="CR58" t="inlineStr"/>
+      <c r="CS58" t="inlineStr"/>
+      <c r="CT58" t="inlineStr"/>
+      <c r="CU58" t="inlineStr"/>
+      <c r="CV58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16234,6 +16686,10 @@
       <c r="CP59" t="inlineStr"/>
       <c r="CQ59" t="inlineStr"/>
       <c r="CR59" t="inlineStr"/>
+      <c r="CS59" t="inlineStr"/>
+      <c r="CT59" t="inlineStr"/>
+      <c r="CU59" t="inlineStr"/>
+      <c r="CV59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16556,6 +17012,10 @@
       <c r="CP60" t="inlineStr"/>
       <c r="CQ60" t="inlineStr"/>
       <c r="CR60" t="inlineStr"/>
+      <c r="CS60" t="inlineStr"/>
+      <c r="CT60" t="inlineStr"/>
+      <c r="CU60" t="inlineStr"/>
+      <c r="CV60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16866,6 +17326,10 @@
       <c r="CP61" t="inlineStr"/>
       <c r="CQ61" t="inlineStr"/>
       <c r="CR61" t="inlineStr"/>
+      <c r="CS61" t="inlineStr"/>
+      <c r="CT61" t="inlineStr"/>
+      <c r="CU61" t="inlineStr"/>
+      <c r="CV61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -17188,6 +17652,10 @@
       <c r="CP62" t="inlineStr"/>
       <c r="CQ62" t="inlineStr"/>
       <c r="CR62" t="inlineStr"/>
+      <c r="CS62" t="inlineStr"/>
+      <c r="CT62" t="inlineStr"/>
+      <c r="CU62" t="inlineStr"/>
+      <c r="CV62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17414,6 +17882,10 @@
       <c r="CP63" t="inlineStr"/>
       <c r="CQ63" t="inlineStr"/>
       <c r="CR63" t="inlineStr"/>
+      <c r="CS63" t="inlineStr"/>
+      <c r="CT63" t="inlineStr"/>
+      <c r="CU63" t="inlineStr"/>
+      <c r="CV63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -17624,6 +18096,10 @@
       <c r="CP64" t="inlineStr"/>
       <c r="CQ64" t="inlineStr"/>
       <c r="CR64" t="inlineStr"/>
+      <c r="CS64" t="inlineStr"/>
+      <c r="CT64" t="inlineStr"/>
+      <c r="CU64" t="inlineStr"/>
+      <c r="CV64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17834,6 +18310,10 @@
       <c r="CP65" t="inlineStr"/>
       <c r="CQ65" t="inlineStr"/>
       <c r="CR65" t="inlineStr"/>
+      <c r="CS65" t="inlineStr"/>
+      <c r="CT65" t="inlineStr"/>
+      <c r="CU65" t="inlineStr"/>
+      <c r="CV65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18056,6 +18536,10 @@
       <c r="CP66" t="inlineStr"/>
       <c r="CQ66" t="inlineStr"/>
       <c r="CR66" t="inlineStr"/>
+      <c r="CS66" t="inlineStr"/>
+      <c r="CT66" t="inlineStr"/>
+      <c r="CU66" t="inlineStr"/>
+      <c r="CV66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -18093,7 +18577,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sánchez González, Alberto</t>
+          <t>Sanchezgonzalez, Alberto</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -18266,6 +18750,10 @@
       <c r="CP67" t="inlineStr"/>
       <c r="CQ67" t="inlineStr"/>
       <c r="CR67" t="inlineStr"/>
+      <c r="CS67" t="inlineStr"/>
+      <c r="CT67" t="inlineStr"/>
+      <c r="CU67" t="inlineStr"/>
+      <c r="CV67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -18303,7 +18791,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Ruiz, Sergio</t>
+          <t>Ruiz Rodriguez, Sergio</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -18474,6 +18962,10 @@
       <c r="CP68" t="inlineStr"/>
       <c r="CQ68" t="inlineStr"/>
       <c r="CR68" t="inlineStr"/>
+      <c r="CS68" t="inlineStr"/>
+      <c r="CT68" t="inlineStr"/>
+      <c r="CU68" t="inlineStr"/>
+      <c r="CV68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18652,6 +19144,10 @@
       <c r="CP69" t="inlineStr"/>
       <c r="CQ69" t="inlineStr"/>
       <c r="CR69" t="inlineStr"/>
+      <c r="CS69" t="inlineStr"/>
+      <c r="CT69" t="inlineStr"/>
+      <c r="CU69" t="inlineStr"/>
+      <c r="CV69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18954,6 +19450,10 @@
       <c r="CP70" t="inlineStr"/>
       <c r="CQ70" t="inlineStr"/>
       <c r="CR70" t="inlineStr"/>
+      <c r="CS70" t="inlineStr"/>
+      <c r="CT70" t="inlineStr"/>
+      <c r="CU70" t="inlineStr"/>
+      <c r="CV70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -19272,6 +19772,10 @@
       <c r="CP71" t="inlineStr"/>
       <c r="CQ71" t="inlineStr"/>
       <c r="CR71" t="inlineStr"/>
+      <c r="CS71" t="inlineStr"/>
+      <c r="CT71" t="inlineStr"/>
+      <c r="CU71" t="inlineStr"/>
+      <c r="CV71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -19590,6 +20094,10 @@
       <c r="CP72" t="inlineStr"/>
       <c r="CQ72" t="inlineStr"/>
       <c r="CR72" t="inlineStr"/>
+      <c r="CS72" t="inlineStr"/>
+      <c r="CT72" t="inlineStr"/>
+      <c r="CU72" t="inlineStr"/>
+      <c r="CV72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19904,6 +20412,10 @@
       <c r="CP73" t="inlineStr"/>
       <c r="CQ73" t="inlineStr"/>
       <c r="CR73" t="inlineStr"/>
+      <c r="CS73" t="inlineStr"/>
+      <c r="CT73" t="inlineStr"/>
+      <c r="CU73" t="inlineStr"/>
+      <c r="CV73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -20210,6 +20722,10 @@
       <c r="CP74" t="inlineStr"/>
       <c r="CQ74" t="inlineStr"/>
       <c r="CR74" t="inlineStr"/>
+      <c r="CS74" t="inlineStr"/>
+      <c r="CT74" t="inlineStr"/>
+      <c r="CU74" t="inlineStr"/>
+      <c r="CV74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -20524,6 +21040,10 @@
       <c r="CP75" t="inlineStr"/>
       <c r="CQ75" t="inlineStr"/>
       <c r="CR75" t="inlineStr"/>
+      <c r="CS75" t="inlineStr"/>
+      <c r="CT75" t="inlineStr"/>
+      <c r="CU75" t="inlineStr"/>
+      <c r="CV75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -20830,6 +21350,10 @@
       <c r="CP76" t="inlineStr"/>
       <c r="CQ76" t="inlineStr"/>
       <c r="CR76" t="inlineStr"/>
+      <c r="CS76" t="inlineStr"/>
+      <c r="CT76" t="inlineStr"/>
+      <c r="CU76" t="inlineStr"/>
+      <c r="CV76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -21144,6 +21668,10 @@
       <c r="CP77" t="inlineStr"/>
       <c r="CQ77" t="inlineStr"/>
       <c r="CR77" t="inlineStr"/>
+      <c r="CS77" t="inlineStr"/>
+      <c r="CT77" t="inlineStr"/>
+      <c r="CU77" t="inlineStr"/>
+      <c r="CV77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -21458,6 +21986,10 @@
       <c r="CP78" t="inlineStr"/>
       <c r="CQ78" t="inlineStr"/>
       <c r="CR78" t="inlineStr"/>
+      <c r="CS78" t="inlineStr"/>
+      <c r="CT78" t="inlineStr"/>
+      <c r="CU78" t="inlineStr"/>
+      <c r="CV78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -21780,6 +22312,10 @@
       <c r="CP79" t="inlineStr"/>
       <c r="CQ79" t="inlineStr"/>
       <c r="CR79" t="inlineStr"/>
+      <c r="CS79" t="inlineStr"/>
+      <c r="CT79" t="inlineStr"/>
+      <c r="CU79" t="inlineStr"/>
+      <c r="CV79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -22094,6 +22630,10 @@
       <c r="CP80" t="inlineStr"/>
       <c r="CQ80" t="inlineStr"/>
       <c r="CR80" t="inlineStr"/>
+      <c r="CS80" t="inlineStr"/>
+      <c r="CT80" t="inlineStr"/>
+      <c r="CU80" t="inlineStr"/>
+      <c r="CV80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -22332,6 +22872,10 @@
       <c r="CP81" t="inlineStr"/>
       <c r="CQ81" t="inlineStr"/>
       <c r="CR81" t="inlineStr"/>
+      <c r="CS81" t="inlineStr"/>
+      <c r="CT81" t="inlineStr"/>
+      <c r="CU81" t="inlineStr"/>
+      <c r="CV81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -22590,6 +23134,10 @@
       <c r="CP82" t="inlineStr"/>
       <c r="CQ82" t="inlineStr"/>
       <c r="CR82" t="inlineStr"/>
+      <c r="CS82" t="inlineStr"/>
+      <c r="CT82" t="inlineStr"/>
+      <c r="CU82" t="inlineStr"/>
+      <c r="CV82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -22824,6 +23372,10 @@
       <c r="CP83" t="inlineStr"/>
       <c r="CQ83" t="inlineStr"/>
       <c r="CR83" t="inlineStr"/>
+      <c r="CS83" t="inlineStr"/>
+      <c r="CT83" t="inlineStr"/>
+      <c r="CU83" t="inlineStr"/>
+      <c r="CV83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -23034,6 +23586,10 @@
       <c r="CP84" t="inlineStr"/>
       <c r="CQ84" t="inlineStr"/>
       <c r="CR84" t="inlineStr"/>
+      <c r="CS84" t="inlineStr"/>
+      <c r="CT84" t="inlineStr"/>
+      <c r="CU84" t="inlineStr"/>
+      <c r="CV84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -23224,6 +23780,10 @@
       <c r="CP85" t="inlineStr"/>
       <c r="CQ85" t="inlineStr"/>
       <c r="CR85" t="inlineStr"/>
+      <c r="CS85" t="inlineStr"/>
+      <c r="CT85" t="inlineStr"/>
+      <c r="CU85" t="inlineStr"/>
+      <c r="CV85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -23440,6 +24000,10 @@
       <c r="CP86" t="inlineStr"/>
       <c r="CQ86" t="inlineStr"/>
       <c r="CR86" t="inlineStr"/>
+      <c r="CS86" t="inlineStr"/>
+      <c r="CT86" t="inlineStr"/>
+      <c r="CU86" t="inlineStr"/>
+      <c r="CV86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -23648,6 +24212,10 @@
       <c r="CP87" t="inlineStr"/>
       <c r="CQ87" t="inlineStr"/>
       <c r="CR87" t="inlineStr"/>
+      <c r="CS87" t="inlineStr"/>
+      <c r="CT87" t="inlineStr"/>
+      <c r="CU87" t="inlineStr"/>
+      <c r="CV87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -23856,6 +24424,10 @@
       <c r="CP88" t="inlineStr"/>
       <c r="CQ88" t="inlineStr"/>
       <c r="CR88" t="inlineStr"/>
+      <c r="CS88" t="inlineStr"/>
+      <c r="CT88" t="inlineStr"/>
+      <c r="CU88" t="inlineStr"/>
+      <c r="CV88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -24150,6 +24722,10 @@
       <c r="CP89" t="inlineStr"/>
       <c r="CQ89" t="inlineStr"/>
       <c r="CR89" t="inlineStr"/>
+      <c r="CS89" t="inlineStr"/>
+      <c r="CT89" t="inlineStr"/>
+      <c r="CU89" t="inlineStr"/>
+      <c r="CV89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -24500,6 +25076,10 @@
       <c r="CP90" t="inlineStr"/>
       <c r="CQ90" t="inlineStr"/>
       <c r="CR90" t="inlineStr"/>
+      <c r="CS90" t="inlineStr"/>
+      <c r="CT90" t="inlineStr"/>
+      <c r="CU90" t="inlineStr"/>
+      <c r="CV90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -24754,6 +25334,10 @@
       <c r="CP91" t="inlineStr"/>
       <c r="CQ91" t="inlineStr"/>
       <c r="CR91" t="inlineStr"/>
+      <c r="CS91" t="inlineStr"/>
+      <c r="CT91" t="inlineStr"/>
+      <c r="CU91" t="inlineStr"/>
+      <c r="CV91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -25000,6 +25584,10 @@
       <c r="CP92" t="inlineStr"/>
       <c r="CQ92" t="inlineStr"/>
       <c r="CR92" t="inlineStr"/>
+      <c r="CS92" t="inlineStr"/>
+      <c r="CT92" t="inlineStr"/>
+      <c r="CU92" t="inlineStr"/>
+      <c r="CV92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -25326,6 +25914,10 @@
       <c r="CP93" t="inlineStr"/>
       <c r="CQ93" t="inlineStr"/>
       <c r="CR93" t="inlineStr"/>
+      <c r="CS93" t="inlineStr"/>
+      <c r="CT93" t="inlineStr"/>
+      <c r="CU93" t="inlineStr"/>
+      <c r="CV93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -25652,6 +26244,10 @@
       <c r="CP94" t="inlineStr"/>
       <c r="CQ94" t="inlineStr"/>
       <c r="CR94" t="inlineStr"/>
+      <c r="CS94" t="inlineStr"/>
+      <c r="CT94" t="inlineStr"/>
+      <c r="CU94" t="inlineStr"/>
+      <c r="CV94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -25978,6 +26574,10 @@
       <c r="CP95" t="inlineStr"/>
       <c r="CQ95" t="inlineStr"/>
       <c r="CR95" t="inlineStr"/>
+      <c r="CS95" t="inlineStr"/>
+      <c r="CT95" t="inlineStr"/>
+      <c r="CU95" t="inlineStr"/>
+      <c r="CV95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -26304,6 +26904,10 @@
       <c r="CP96" t="inlineStr"/>
       <c r="CQ96" t="inlineStr"/>
       <c r="CR96" t="inlineStr"/>
+      <c r="CS96" t="inlineStr"/>
+      <c r="CT96" t="inlineStr"/>
+      <c r="CU96" t="inlineStr"/>
+      <c r="CV96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -26614,6 +27218,10 @@
       <c r="CP97" t="inlineStr"/>
       <c r="CQ97" t="inlineStr"/>
       <c r="CR97" t="inlineStr"/>
+      <c r="CS97" t="inlineStr"/>
+      <c r="CT97" t="inlineStr"/>
+      <c r="CU97" t="inlineStr"/>
+      <c r="CV97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -26940,6 +27548,10 @@
       <c r="CP98" t="inlineStr"/>
       <c r="CQ98" t="inlineStr"/>
       <c r="CR98" t="inlineStr"/>
+      <c r="CS98" t="inlineStr"/>
+      <c r="CT98" t="inlineStr"/>
+      <c r="CU98" t="inlineStr"/>
+      <c r="CV98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -27266,6 +27878,10 @@
       <c r="CP99" t="inlineStr"/>
       <c r="CQ99" t="inlineStr"/>
       <c r="CR99" t="inlineStr"/>
+      <c r="CS99" t="inlineStr"/>
+      <c r="CT99" t="inlineStr"/>
+      <c r="CU99" t="inlineStr"/>
+      <c r="CV99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -27592,6 +28208,10 @@
       <c r="CP100" t="inlineStr"/>
       <c r="CQ100" t="inlineStr"/>
       <c r="CR100" t="inlineStr"/>
+      <c r="CS100" t="inlineStr"/>
+      <c r="CT100" t="inlineStr"/>
+      <c r="CU100" t="inlineStr"/>
+      <c r="CV100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -27874,6 +28494,10 @@
       <c r="CP101" t="inlineStr"/>
       <c r="CQ101" t="inlineStr"/>
       <c r="CR101" t="inlineStr"/>
+      <c r="CS101" t="inlineStr"/>
+      <c r="CT101" t="inlineStr"/>
+      <c r="CU101" t="inlineStr"/>
+      <c r="CV101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -28208,6 +28832,10 @@
           <t>ATG-EU-RP-PC-F4E-25-02827</t>
         </is>
       </c>
+      <c r="CS102" t="inlineStr"/>
+      <c r="CT102" t="inlineStr"/>
+      <c r="CU102" t="inlineStr"/>
+      <c r="CV102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -28420,6 +29048,10 @@
       <c r="CP103" t="inlineStr"/>
       <c r="CQ103" t="inlineStr"/>
       <c r="CR103" t="inlineStr"/>
+      <c r="CS103" t="inlineStr"/>
+      <c r="CT103" t="inlineStr"/>
+      <c r="CU103" t="inlineStr"/>
+      <c r="CV103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -28628,6 +29260,10 @@
       <c r="CP104" t="inlineStr"/>
       <c r="CQ104" t="inlineStr"/>
       <c r="CR104" t="inlineStr"/>
+      <c r="CS104" t="inlineStr"/>
+      <c r="CT104" t="inlineStr"/>
+      <c r="CU104" t="inlineStr"/>
+      <c r="CV104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -28942,6 +29578,10 @@
       <c r="CP105" t="inlineStr"/>
       <c r="CQ105" t="inlineStr"/>
       <c r="CR105" t="inlineStr"/>
+      <c r="CS105" t="inlineStr"/>
+      <c r="CT105" t="inlineStr"/>
+      <c r="CU105" t="inlineStr"/>
+      <c r="CV105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -29150,6 +29790,10 @@
       <c r="CP106" t="inlineStr"/>
       <c r="CQ106" t="inlineStr"/>
       <c r="CR106" t="inlineStr"/>
+      <c r="CS106" t="inlineStr"/>
+      <c r="CT106" t="inlineStr"/>
+      <c r="CU106" t="inlineStr"/>
+      <c r="CV106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -29416,6 +30060,10 @@
       <c r="CP107" t="inlineStr"/>
       <c r="CQ107" t="inlineStr"/>
       <c r="CR107" t="inlineStr"/>
+      <c r="CS107" t="inlineStr"/>
+      <c r="CT107" t="inlineStr"/>
+      <c r="CU107" t="inlineStr"/>
+      <c r="CV107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -29734,6 +30382,10 @@
       <c r="CP108" t="inlineStr"/>
       <c r="CQ108" t="inlineStr"/>
       <c r="CR108" t="inlineStr"/>
+      <c r="CS108" t="inlineStr"/>
+      <c r="CT108" t="inlineStr"/>
+      <c r="CU108" t="inlineStr"/>
+      <c r="CV108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -30052,6 +30704,10 @@
       <c r="CP109" t="inlineStr"/>
       <c r="CQ109" t="inlineStr"/>
       <c r="CR109" t="inlineStr"/>
+      <c r="CS109" t="inlineStr"/>
+      <c r="CT109" t="inlineStr"/>
+      <c r="CU109" t="inlineStr"/>
+      <c r="CV109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -30318,6 +30974,10 @@
       <c r="CP110" t="inlineStr"/>
       <c r="CQ110" t="inlineStr"/>
       <c r="CR110" t="inlineStr"/>
+      <c r="CS110" t="inlineStr"/>
+      <c r="CT110" t="inlineStr"/>
+      <c r="CU110" t="inlineStr"/>
+      <c r="CV110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -30542,28 +31202,104 @@
           <t>ATG-NL-RP-PC-F4E-23-01956</t>
         </is>
       </c>
-      <c r="BW111" t="inlineStr"/>
-      <c r="BX111" t="inlineStr"/>
-      <c r="BY111" t="inlineStr"/>
-      <c r="BZ111" t="inlineStr"/>
-      <c r="CA111" t="inlineStr"/>
-      <c r="CB111" t="inlineStr"/>
-      <c r="CC111" t="inlineStr"/>
-      <c r="CD111" t="inlineStr"/>
-      <c r="CE111" t="inlineStr"/>
-      <c r="CF111" t="inlineStr"/>
-      <c r="CG111" t="inlineStr"/>
-      <c r="CH111" t="inlineStr"/>
-      <c r="CI111" t="inlineStr"/>
-      <c r="CJ111" t="inlineStr"/>
-      <c r="CK111" t="inlineStr"/>
-      <c r="CL111" t="inlineStr"/>
-      <c r="CM111" t="inlineStr"/>
-      <c r="CN111" t="inlineStr"/>
+      <c r="BW111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03128</t>
+        </is>
+      </c>
+      <c r="BX111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03129</t>
+        </is>
+      </c>
+      <c r="BY111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03130</t>
+        </is>
+      </c>
+      <c r="BZ111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03131</t>
+        </is>
+      </c>
+      <c r="CA111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03132</t>
+        </is>
+      </c>
+      <c r="CB111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03133</t>
+        </is>
+      </c>
+      <c r="CC111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03134</t>
+        </is>
+      </c>
+      <c r="CD111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03135</t>
+        </is>
+      </c>
+      <c r="CE111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03136</t>
+        </is>
+      </c>
+      <c r="CF111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03137</t>
+        </is>
+      </c>
+      <c r="CG111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03138</t>
+        </is>
+      </c>
+      <c r="CH111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03139</t>
+        </is>
+      </c>
+      <c r="CI111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03140</t>
+        </is>
+      </c>
+      <c r="CJ111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03141</t>
+        </is>
+      </c>
+      <c r="CK111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03142</t>
+        </is>
+      </c>
+      <c r="CL111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03143</t>
+        </is>
+      </c>
+      <c r="CM111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03144</t>
+        </is>
+      </c>
+      <c r="CN111" t="inlineStr">
+        <is>
+          <t>ATG-EU-RP-PC-F4E-25-03145</t>
+        </is>
+      </c>
       <c r="CO111" t="inlineStr"/>
       <c r="CP111" t="inlineStr"/>
       <c r="CQ111" t="inlineStr"/>
       <c r="CR111" t="inlineStr"/>
+      <c r="CS111" t="inlineStr"/>
+      <c r="CT111" t="inlineStr"/>
+      <c r="CU111" t="inlineStr"/>
+      <c r="CV111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -30822,6 +31558,10 @@
       <c r="CP112" t="inlineStr"/>
       <c r="CQ112" t="inlineStr"/>
       <c r="CR112" t="inlineStr"/>
+      <c r="CS112" t="inlineStr"/>
+      <c r="CT112" t="inlineStr"/>
+      <c r="CU112" t="inlineStr"/>
+      <c r="CV112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -31068,6 +31808,10 @@
       <c r="CP113" t="inlineStr"/>
       <c r="CQ113" t="inlineStr"/>
       <c r="CR113" t="inlineStr"/>
+      <c r="CS113" t="inlineStr"/>
+      <c r="CT113" t="inlineStr"/>
+      <c r="CU113" t="inlineStr"/>
+      <c r="CV113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -31310,6 +32054,10 @@
       <c r="CP114" t="inlineStr"/>
       <c r="CQ114" t="inlineStr"/>
       <c r="CR114" t="inlineStr"/>
+      <c r="CS114" t="inlineStr"/>
+      <c r="CT114" t="inlineStr"/>
+      <c r="CU114" t="inlineStr"/>
+      <c r="CV114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -31512,6 +32260,10 @@
       <c r="CP115" t="inlineStr"/>
       <c r="CQ115" t="inlineStr"/>
       <c r="CR115" t="inlineStr"/>
+      <c r="CS115" t="inlineStr"/>
+      <c r="CT115" t="inlineStr"/>
+      <c r="CU115" t="inlineStr"/>
+      <c r="CV115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -31726,6 +32478,10 @@
       <c r="CP116" t="inlineStr"/>
       <c r="CQ116" t="inlineStr"/>
       <c r="CR116" t="inlineStr"/>
+      <c r="CS116" t="inlineStr"/>
+      <c r="CT116" t="inlineStr"/>
+      <c r="CU116" t="inlineStr"/>
+      <c r="CV116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -31924,6 +32680,10 @@
       <c r="CP117" t="inlineStr"/>
       <c r="CQ117" t="inlineStr"/>
       <c r="CR117" t="inlineStr"/>
+      <c r="CS117" t="inlineStr"/>
+      <c r="CT117" t="inlineStr"/>
+      <c r="CU117" t="inlineStr"/>
+      <c r="CV117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -32122,6 +32882,10 @@
       <c r="CP118" t="inlineStr"/>
       <c r="CQ118" t="inlineStr"/>
       <c r="CR118" t="inlineStr"/>
+      <c r="CS118" t="inlineStr"/>
+      <c r="CT118" t="inlineStr"/>
+      <c r="CU118" t="inlineStr"/>
+      <c r="CV118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -32364,6 +33128,10 @@
       <c r="CP119" t="inlineStr"/>
       <c r="CQ119" t="inlineStr"/>
       <c r="CR119" t="inlineStr"/>
+      <c r="CS119" t="inlineStr"/>
+      <c r="CT119" t="inlineStr"/>
+      <c r="CU119" t="inlineStr"/>
+      <c r="CV119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -32622,6 +33390,10 @@
       <c r="CP120" t="inlineStr"/>
       <c r="CQ120" t="inlineStr"/>
       <c r="CR120" t="inlineStr"/>
+      <c r="CS120" t="inlineStr"/>
+      <c r="CT120" t="inlineStr"/>
+      <c r="CU120" t="inlineStr"/>
+      <c r="CV120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -32936,6 +33708,10 @@
       <c r="CP121" t="inlineStr"/>
       <c r="CQ121" t="inlineStr"/>
       <c r="CR121" t="inlineStr"/>
+      <c r="CS121" t="inlineStr"/>
+      <c r="CT121" t="inlineStr"/>
+      <c r="CU121" t="inlineStr"/>
+      <c r="CV121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -33178,6 +33954,10 @@
       <c r="CP122" t="inlineStr"/>
       <c r="CQ122" t="inlineStr"/>
       <c r="CR122" t="inlineStr"/>
+      <c r="CS122" t="inlineStr"/>
+      <c r="CT122" t="inlineStr"/>
+      <c r="CU122" t="inlineStr"/>
+      <c r="CV122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -33420,6 +34200,10 @@
       <c r="CP123" t="inlineStr"/>
       <c r="CQ123" t="inlineStr"/>
       <c r="CR123" t="inlineStr"/>
+      <c r="CS123" t="inlineStr"/>
+      <c r="CT123" t="inlineStr"/>
+      <c r="CU123" t="inlineStr"/>
+      <c r="CV123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -33734,6 +34518,10 @@
       <c r="CP124" t="inlineStr"/>
       <c r="CQ124" t="inlineStr"/>
       <c r="CR124" t="inlineStr"/>
+      <c r="CS124" t="inlineStr"/>
+      <c r="CT124" t="inlineStr"/>
+      <c r="CU124" t="inlineStr"/>
+      <c r="CV124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -33942,6 +34730,10 @@
       <c r="CP125" t="inlineStr"/>
       <c r="CQ125" t="inlineStr"/>
       <c r="CR125" t="inlineStr"/>
+      <c r="CS125" t="inlineStr"/>
+      <c r="CT125" t="inlineStr"/>
+      <c r="CU125" t="inlineStr"/>
+      <c r="CV125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -34150,6 +34942,10 @@
       <c r="CP126" t="inlineStr"/>
       <c r="CQ126" t="inlineStr"/>
       <c r="CR126" t="inlineStr"/>
+      <c r="CS126" t="inlineStr"/>
+      <c r="CT126" t="inlineStr"/>
+      <c r="CU126" t="inlineStr"/>
+      <c r="CV126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -34358,6 +35154,10 @@
       <c r="CP127" t="inlineStr"/>
       <c r="CQ127" t="inlineStr"/>
       <c r="CR127" t="inlineStr"/>
+      <c r="CS127" t="inlineStr"/>
+      <c r="CT127" t="inlineStr"/>
+      <c r="CU127" t="inlineStr"/>
+      <c r="CV127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -34596,6 +35396,10 @@
       <c r="CP128" t="inlineStr"/>
       <c r="CQ128" t="inlineStr"/>
       <c r="CR128" t="inlineStr"/>
+      <c r="CS128" t="inlineStr"/>
+      <c r="CT128" t="inlineStr"/>
+      <c r="CU128" t="inlineStr"/>
+      <c r="CV128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -34804,6 +35608,10 @@
       <c r="CP129" t="inlineStr"/>
       <c r="CQ129" t="inlineStr"/>
       <c r="CR129" t="inlineStr"/>
+      <c r="CS129" t="inlineStr"/>
+      <c r="CT129" t="inlineStr"/>
+      <c r="CU129" t="inlineStr"/>
+      <c r="CV129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -35012,6 +35820,10 @@
       <c r="CP130" t="inlineStr"/>
       <c r="CQ130" t="inlineStr"/>
       <c r="CR130" t="inlineStr"/>
+      <c r="CS130" t="inlineStr"/>
+      <c r="CT130" t="inlineStr"/>
+      <c r="CU130" t="inlineStr"/>
+      <c r="CV130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -35220,6 +36032,10 @@
       <c r="CP131" t="inlineStr"/>
       <c r="CQ131" t="inlineStr"/>
       <c r="CR131" t="inlineStr"/>
+      <c r="CS131" t="inlineStr"/>
+      <c r="CT131" t="inlineStr"/>
+      <c r="CU131" t="inlineStr"/>
+      <c r="CV131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -35428,6 +36244,10 @@
       <c r="CP132" t="inlineStr"/>
       <c r="CQ132" t="inlineStr"/>
       <c r="CR132" t="inlineStr"/>
+      <c r="CS132" t="inlineStr"/>
+      <c r="CT132" t="inlineStr"/>
+      <c r="CU132" t="inlineStr"/>
+      <c r="CV132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -35726,6 +36546,10 @@
       <c r="CP133" t="inlineStr"/>
       <c r="CQ133" t="inlineStr"/>
       <c r="CR133" t="inlineStr"/>
+      <c r="CS133" t="inlineStr"/>
+      <c r="CT133" t="inlineStr"/>
+      <c r="CU133" t="inlineStr"/>
+      <c r="CV133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -35934,6 +36758,10 @@
       <c r="CP134" t="inlineStr"/>
       <c r="CQ134" t="inlineStr"/>
       <c r="CR134" t="inlineStr"/>
+      <c r="CS134" t="inlineStr"/>
+      <c r="CT134" t="inlineStr"/>
+      <c r="CU134" t="inlineStr"/>
+      <c r="CV134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -36142,6 +36970,10 @@
       <c r="CP135" t="inlineStr"/>
       <c r="CQ135" t="inlineStr"/>
       <c r="CR135" t="inlineStr"/>
+      <c r="CS135" t="inlineStr"/>
+      <c r="CT135" t="inlineStr"/>
+      <c r="CU135" t="inlineStr"/>
+      <c r="CV135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -36350,6 +37182,10 @@
       <c r="CP136" t="inlineStr"/>
       <c r="CQ136" t="inlineStr"/>
       <c r="CR136" t="inlineStr"/>
+      <c r="CS136" t="inlineStr"/>
+      <c r="CT136" t="inlineStr"/>
+      <c r="CU136" t="inlineStr"/>
+      <c r="CV136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -36578,6 +37414,10 @@
           <t>ATG-EU-RP-PC-F4E-25-02803</t>
         </is>
       </c>
+      <c r="CS137" t="inlineStr"/>
+      <c r="CT137" t="inlineStr"/>
+      <c r="CU137" t="inlineStr"/>
+      <c r="CV137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -36786,6 +37626,10 @@
       <c r="CP138" t="inlineStr"/>
       <c r="CQ138" t="inlineStr"/>
       <c r="CR138" t="inlineStr"/>
+      <c r="CS138" t="inlineStr"/>
+      <c r="CT138" t="inlineStr"/>
+      <c r="CU138" t="inlineStr"/>
+      <c r="CV138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -37042,13 +37886,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6387EF16-3850-4380-8E52-8394C7371E71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54FD1BBB-A2D8-4A18-A2F5-F7832B42843D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BB1DC2B-3A6C-485D-A2E8-4F950F7D8D18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07D8B4DD-E0B9-4553-BBED-E7894672DA5F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{269332F1-3F6B-449F-A997-255D7361AC18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D4DA39-ADD0-4DB4-A238-5444EC886BC0}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -33726,7 +33726,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sevil de Veer</t>
+          <t>Juan Torre</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -37223,7 +37223,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Morales, Juan Carlos</t>
+          <t>Morales, Juancarlos</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -37461,7 +37461,7 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://idm.f4e.europa.eu/?uid=3B9QHR </t>
+          <t>https://idm.f4e.europa.eu//?uid=3CLQZZ</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -37877,22 +37877,22 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <TaxCatchAll xmlns="e82ac38b-faea-4ea8-bff9-d97ba262ba29" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="23d0c39d-f35f-4b16-8d90-ad825ca80df4">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e82ac38b-faea-4ea8-bff9-d97ba262ba29" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54FD1BBB-A2D8-4A18-A2F5-F7832B42843D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6C1CD51-4310-427D-857F-3E106636BE4F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07D8B4DD-E0B9-4553-BBED-E7894672DA5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4B3E190-384B-42F4-8EBE-7307B3136176}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60D4DA39-ADD0-4DB4-A238-5444EC886BC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52FC8765-ADE7-48E3-B2AC-CA2A028F0190}"/>
 </file>
--- a/LIST OF EMPLOYEES.xlsx
+++ b/LIST OF EMPLOYEES.xlsx
@@ -5983,7 +5983,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://idm.f4e.europa.eu/default.aspx?uid=32BKD9</t>
+          <t>https://idm.f4e.europa.eu/?uid=39W65Q</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -37743,7 +37743,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Morales, Juan Carlos</t>
+          <t>Morales, Juancarlos</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -38406,13 +38406,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7532B283-3DEF-4FFC-86F1-07C0E613C19D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8097CCE-DE9A-4852-820F-52639B8E1797}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D622176A-276E-47CF-BEC9-500A31FC314D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{669A3469-DA20-432B-89C8-5C010C4E5C32}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ECE9ED1-78A3-4A3E-9ABF-DCBFB721EDDA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A49CAC-3DF5-4DE5-B251-CE807C27816E}"/>
 </file>